--- a/datamining/final_data/sorted2020_nltk.xlsx
+++ b/datamining/final_data/sorted2020_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ALG2"/>
+  <dimension ref="A1:AJU2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,14 +447,14 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>manova</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>math</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>manova</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>test</t>
@@ -467,39 +467,39 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>interventions</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>students</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>breaking</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>promise</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>silos</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>mindfulness</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>perfectionism</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>interventions</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>silos</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>breaking</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>mindfulness</t>
-        </is>
-      </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
           <t>motivation</t>
@@ -517,59 +517,59 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
+          <t>underachievers</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>intervention</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>identification</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
           <t>suicidal</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>nonverbal</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>underachievers</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>intervention</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>identification</t>
-        </is>
-      </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>education</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
           <t>addiction</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>internet</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>adhd</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>academic</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>education</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>high</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>adhd</t>
-        </is>
-      </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>theory</t>
@@ -577,39 +577,39 @@
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
+          <t>analysis</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>adjustment</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
           <t>university</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>adjustment</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>norming</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>school</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>learning</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>cognition</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>analysis</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>learning</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>school</t>
-        </is>
-      </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>elements</t>
@@ -617,39 +617,39 @@
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
+          <t>girls</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
           <t>otpd</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>terman</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>girls</t>
-        </is>
-      </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>hoc</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
+          <t>multivariate</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>cyberbullying</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
           <t>post</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>hoc</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>cyberbullying</t>
-        </is>
-      </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>talent</t>
@@ -657,7 +657,7 @@
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>multivariate</t>
+          <t>public</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
@@ -667,32 +667,32 @@
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
+          <t>grade</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
           <t>performance</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>inattention</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>grade</t>
-        </is>
-      </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
+          <t>'s</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
           <t>ability</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>'s</t>
-        </is>
-      </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>public</t>
+          <t>cognitive</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
@@ -702,92 +702,92 @@
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
+          <t>pre-k</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
           <t>identified</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>academically</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>interests</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>abilities</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>academically</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>cognitive</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>outcomes</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>interests</t>
-        </is>
-      </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>cox</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>cox</t>
+          <t>college</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>pre-k</t>
+          <t>used</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>used</t>
+          <t>program</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>college</t>
+          <t>use</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>research</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
+          <t>psychosocial</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
           <t>article</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>psychosocial</t>
-        </is>
-      </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
+          <t>early</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
           <t>irt</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>teacher</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>early</t>
-        </is>
-      </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>research</t>
+          <t>differences</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
@@ -797,47 +797,47 @@
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
+          <t>discriminant</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
           <t>given</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>program</t>
+          <t>intellectually</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>discriminant</t>
+          <t>associated</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>differences</t>
+          <t>scores</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>scores</t>
+          <t>findings</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>findings</t>
+          <t>participants</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>sample</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>associated</t>
+          <t>model</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
@@ -852,207 +852,207 @@
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>model</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>effects</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>participants</t>
+          <t>inquiry</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
+          <t>vocational</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>interest</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>self-concept</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
           <t>characteristics</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
-        <is>
-          <t>inquiry</t>
-        </is>
-      </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>studies</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>iv</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>self-determination</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
-        <is>
-          <t>vocational</t>
-        </is>
-      </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>intellectually</t>
-        </is>
-      </c>
-      <c r="CP1" s="1" t="inlineStr">
-        <is>
-          <t>effects</t>
-        </is>
-      </c>
-      <c r="CQ1" s="1" t="inlineStr">
-        <is>
-          <t>volume</t>
-        </is>
-      </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>self-concept</t>
+          <t>information</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>interest</t>
+          <t>results</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
+          <t>ap/ib</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>acceptability</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
           <t>groups</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
-        <is>
-          <t>results</t>
-        </is>
-      </c>
-      <c r="CV1" s="1" t="inlineStr">
-        <is>
-          <t>this</t>
-        </is>
-      </c>
       <c r="CW1" s="1" t="inlineStr">
         <is>
-          <t>studies</t>
+          <t>using</t>
         </is>
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>we</t>
+          <t>talented</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>iv</t>
+          <t>test-taking</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
+          <t>high-achieving</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
           <t>design</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>demographic</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>response</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>statistical</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>youth</t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
-        <is>
-          <t>ap/ib</t>
-        </is>
-      </c>
-      <c r="DC1" s="1" t="inlineStr">
-        <is>
-          <t>demographic</t>
-        </is>
-      </c>
-      <c r="DD1" s="1" t="inlineStr">
-        <is>
-          <t>high-achieving</t>
-        </is>
-      </c>
-      <c r="DE1" s="1" t="inlineStr">
-        <is>
-          <t>acceptability</t>
-        </is>
-      </c>
-      <c r="DF1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>resources</t>
         </is>
       </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>item</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>prekindergarten</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>found</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>broaden-and-build</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
-        <is>
-          <t>item</t>
-        </is>
-      </c>
-      <c r="DI1" s="1" t="inlineStr">
-        <is>
-          <t>using</t>
-        </is>
-      </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>teenagers</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>attended</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
-        <is>
-          <t>attended</t>
-        </is>
-      </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>actually</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>researchers</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
-        <is>
-          <t>response</t>
-        </is>
-      </c>
-      <c r="DN1" s="1" t="inlineStr">
-        <is>
-          <t>information</t>
-        </is>
-      </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>study</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>nongifted</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
-        <is>
-          <t>teenagers</t>
-        </is>
-      </c>
-      <c r="DQ1" s="1" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="DR1" s="1" t="inlineStr">
-        <is>
-          <t>statistical</t>
-        </is>
-      </c>
-      <c r="DS1" s="1" t="inlineStr">
-        <is>
-          <t>found</t>
-        </is>
-      </c>
       <c r="DT1" s="1" t="inlineStr">
         <is>
-          <t>talented</t>
+          <t>likely</t>
         </is>
       </c>
       <c r="DU1" s="1" t="inlineStr">
         <is>
-          <t>likely</t>
+          <t>group</t>
         </is>
       </c>
       <c r="DV1" s="1" t="inlineStr">
@@ -1062,69 +1062,69 @@
       </c>
       <c r="DW1" s="1" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>controlling</t>
         </is>
       </c>
       <c r="DX1" s="1" t="inlineStr">
         <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>may</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>readiness</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>evaluated</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
           <t>four</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
-        <is>
-          <t>city</t>
-        </is>
-      </c>
-      <c r="DZ1" s="1" t="inlineStr">
-        <is>
-          <t>may</t>
-        </is>
-      </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>elementary</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>poverty</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>gap</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>language</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>stem</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>descriptive</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
-        <is>
-          <t>actually</t>
-        </is>
-      </c>
-      <c r="EC1" s="1" t="inlineStr">
-        <is>
-          <t>prekindergarten</t>
-        </is>
-      </c>
-      <c r="ED1" s="1" t="inlineStr">
-        <is>
-          <t>study</t>
-        </is>
-      </c>
-      <c r="EE1" s="1" t="inlineStr">
-        <is>
-          <t>evaluated</t>
-        </is>
-      </c>
-      <c r="EF1" s="1" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
-      <c r="EG1" s="1" t="inlineStr">
-        <is>
-          <t>stem</t>
-        </is>
-      </c>
-      <c r="EH1" s="1" t="inlineStr">
-        <is>
-          <t>test-taking</t>
-        </is>
-      </c>
-      <c r="EI1" s="1" t="inlineStr">
-        <is>
-          <t>support</t>
-        </is>
-      </c>
       <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>compared</t>
@@ -1132,97 +1132,97 @@
       </c>
       <c r="EK1" s="1" t="inlineStr">
         <is>
+          <t>based</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>well</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
           <t>parents</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
-        <is>
-          <t>based</t>
-        </is>
-      </c>
-      <c r="EM1" s="1" t="inlineStr">
-        <is>
-          <t>well</t>
-        </is>
-      </c>
       <c r="EN1" s="1" t="inlineStr">
         <is>
-          <t>english</t>
+          <t>average-ability</t>
         </is>
       </c>
       <c r="EO1" s="1" t="inlineStr">
         <is>
-          <t>readiness</t>
+          <t>evidence</t>
         </is>
       </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
-          <t>elementary</t>
+          <t>professional</t>
         </is>
       </c>
       <c r="EQ1" s="1" t="inlineStr">
         <is>
-          <t>poverty</t>
+          <t>procedure</t>
         </is>
       </c>
       <c r="ER1" s="1" t="inlineStr">
         <is>
-          <t>gap</t>
+          <t>instructional</t>
         </is>
       </c>
       <c r="ES1" s="1" t="inlineStr">
         <is>
-          <t>language</t>
+          <t>questions</t>
         </is>
       </c>
       <c r="ET1" s="1" t="inlineStr">
         <is>
-          <t>controlling</t>
+          <t>revealed</t>
         </is>
       </c>
       <c r="EU1" s="1" t="inlineStr">
         <is>
-          <t>instructional</t>
+          <t>element</t>
         </is>
       </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
-          <t>revealed</t>
+          <t>giftedness</t>
         </is>
       </c>
       <c r="EW1" s="1" t="inlineStr">
         <is>
+          <t>diversity</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>online</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>review</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>three</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>well-being</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
           <t>theory-</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
-        <is>
-          <t>review</t>
-        </is>
-      </c>
-      <c r="EY1" s="1" t="inlineStr">
-        <is>
-          <t>professional</t>
-        </is>
-      </c>
-      <c r="EZ1" s="1" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
-      </c>
-      <c r="FA1" s="1" t="inlineStr">
-        <is>
-          <t>online</t>
-        </is>
-      </c>
-      <c r="FB1" s="1" t="inlineStr">
-        <is>
-          <t>questions</t>
-        </is>
-      </c>
       <c r="FC1" s="1" t="inlineStr">
         <is>
-          <t>element</t>
+          <t>tests</t>
         </is>
       </c>
       <c r="FD1" s="1" t="inlineStr">
@@ -1232,107 +1232,107 @@
       </c>
       <c r="FE1" s="1" t="inlineStr">
         <is>
-          <t>evidence</t>
+          <t>exploration</t>
         </is>
       </c>
       <c r="FF1" s="1" t="inlineStr">
         <is>
-          <t>procedure</t>
+          <t>motivational</t>
         </is>
       </c>
       <c r="FG1" s="1" t="inlineStr">
         <is>
-          <t>tests</t>
+          <t>role</t>
         </is>
       </c>
       <c r="FH1" s="1" t="inlineStr">
         <is>
-          <t>giftedness</t>
+          <t>prevalence</t>
         </is>
       </c>
       <c r="FI1" s="1" t="inlineStr">
         <is>
-          <t>exploration</t>
+          <t>differentiation</t>
         </is>
       </c>
       <c r="FJ1" s="1" t="inlineStr">
         <is>
-          <t>average-ability</t>
+          <t>disorder</t>
         </is>
       </c>
       <c r="FK1" s="1" t="inlineStr">
         <is>
+          <t>relationship</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>levels</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>examined</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
+          <t>parent</t>
+        </is>
+      </c>
+      <c r="FO1" s="1" t="inlineStr">
+        <is>
+          <t>student</t>
+        </is>
+      </c>
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
           <t>significantly</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
-        <is>
-          <t>diversity</t>
-        </is>
-      </c>
-      <c r="FM1" s="1" t="inlineStr">
-        <is>
-          <t>three</t>
-        </is>
-      </c>
-      <c r="FN1" s="1" t="inlineStr">
-        <is>
-          <t>student</t>
-        </is>
-      </c>
-      <c r="FO1" s="1" t="inlineStr">
-        <is>
-          <t>examined</t>
-        </is>
-      </c>
-      <c r="FP1" s="1" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
       <c r="FQ1" s="1" t="inlineStr">
         <is>
-          <t>relationship</t>
+          <t>commonly</t>
         </is>
       </c>
       <c r="FR1" s="1" t="inlineStr">
         <is>
-          <t>well-being</t>
+          <t>recent</t>
         </is>
       </c>
       <c r="FS1" s="1" t="inlineStr">
         <is>
-          <t>parent</t>
+          <t>secondary</t>
         </is>
       </c>
       <c r="FT1" s="1" t="inlineStr">
         <is>
-          <t>prevalence</t>
+          <t>also</t>
         </is>
       </c>
       <c r="FU1" s="1" t="inlineStr">
         <is>
-          <t>recent</t>
+          <t>skills</t>
         </is>
       </c>
       <c r="FV1" s="1" t="inlineStr">
         <is>
-          <t>disorder</t>
+          <t>generalized</t>
         </is>
       </c>
       <c r="FW1" s="1" t="inlineStr">
         <is>
-          <t>also</t>
+          <t>longitudinal</t>
         </is>
       </c>
       <c r="FX1" s="1" t="inlineStr">
         <is>
-          <t>secondary</t>
+          <t>implications</t>
         </is>
       </c>
       <c r="FY1" s="1" t="inlineStr">
         <is>
-          <t>an</t>
+          <t>average</t>
         </is>
       </c>
       <c r="FZ1" s="1" t="inlineStr">
@@ -1342,4067 +1342,3877 @@
       </c>
       <c r="GA1" s="1" t="inlineStr">
         <is>
+          <t>genetic</t>
+        </is>
+      </c>
+      <c r="GB1" s="1" t="inlineStr">
+        <is>
+          <t>traits</t>
+        </is>
+      </c>
+      <c r="GC1" s="1" t="inlineStr">
+        <is>
+          <t>chinese</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
+          <t>important</t>
+        </is>
+      </c>
+      <c r="GE1" s="1" t="inlineStr">
+        <is>
+          <t>reports</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
+          <t>ii</t>
+        </is>
+      </c>
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
+          <t>historical</t>
+        </is>
+      </c>
+      <c r="GH1" s="1" t="inlineStr">
+        <is>
+          <t>geniuses</t>
+        </is>
+      </c>
+      <c r="GI1" s="1" t="inlineStr">
+        <is>
+          <t>genius</t>
+        </is>
+      </c>
+      <c r="GJ1" s="1" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="GK1" s="1" t="inlineStr">
+        <is>
+          <t>terms</t>
+        </is>
+      </c>
+      <c r="GL1" s="1" t="inlineStr">
+        <is>
+          <t>exception</t>
+        </is>
+      </c>
+      <c r="GM1" s="1" t="inlineStr">
+        <is>
+          <t>relationships</t>
+        </is>
+      </c>
+      <c r="GN1" s="1" t="inlineStr">
+        <is>
+          <t>variables</t>
+        </is>
+      </c>
+      <c r="GO1" s="1" t="inlineStr">
+        <is>
+          <t>goal</t>
+        </is>
+      </c>
+      <c r="GP1" s="1" t="inlineStr">
+        <is>
+          <t>needs</t>
+        </is>
+      </c>
+      <c r="GQ1" s="1" t="inlineStr">
+        <is>
+          <t>battery</t>
+        </is>
+      </c>
+      <c r="GR1" s="1" t="inlineStr">
+        <is>
+          <t>however</t>
+        </is>
+      </c>
+      <c r="GS1" s="1" t="inlineStr">
+        <is>
+          <t>instrument</t>
+        </is>
+      </c>
+      <c r="GT1" s="1" t="inlineStr">
+        <is>
+          <t>volumes</t>
+        </is>
+      </c>
+      <c r="GU1" s="1" t="inlineStr">
+        <is>
+          <t>impact</t>
+        </is>
+      </c>
+      <c r="GV1" s="1" t="inlineStr">
+        <is>
+          <t>educational</t>
+        </is>
+      </c>
+      <c r="GW1" s="1" t="inlineStr">
+        <is>
+          <t>assess</t>
+        </is>
+      </c>
+      <c r="GX1" s="1" t="inlineStr">
+        <is>
+          <t>regression</t>
+        </is>
+      </c>
+      <c r="GY1" s="1" t="inlineStr">
+        <is>
+          <t>intrinsic</t>
+        </is>
+      </c>
+      <c r="GZ1" s="1" t="inlineStr">
+        <is>
           <t>pressure</t>
         </is>
       </c>
-      <c r="GB1" s="1" t="inlineStr">
-        <is>
-          <t>intrinsic</t>
-        </is>
-      </c>
-      <c r="GC1" s="1" t="inlineStr">
-        <is>
-          <t>generalized</t>
-        </is>
-      </c>
-      <c r="GD1" s="1" t="inlineStr">
-        <is>
-          <t>skills</t>
-        </is>
-      </c>
-      <c r="GE1" s="1" t="inlineStr">
-        <is>
-          <t>battery</t>
-        </is>
-      </c>
-      <c r="GF1" s="1" t="inlineStr">
-        <is>
-          <t>assess</t>
-        </is>
-      </c>
-      <c r="GG1" s="1" t="inlineStr">
+      <c r="HA1" s="1" t="inlineStr">
         <is>
           <t>effectiveness</t>
         </is>
       </c>
-      <c r="GH1" s="1" t="inlineStr">
-        <is>
-          <t>differentiation</t>
-        </is>
-      </c>
-      <c r="GI1" s="1" t="inlineStr">
-        <is>
-          <t>however</t>
-        </is>
-      </c>
-      <c r="GJ1" s="1" t="inlineStr">
-        <is>
-          <t>levels</t>
-        </is>
-      </c>
-      <c r="GK1" s="1" t="inlineStr">
-        <is>
-          <t>commonly</t>
-        </is>
-      </c>
-      <c r="GL1" s="1" t="inlineStr">
-        <is>
-          <t>educational</t>
-        </is>
-      </c>
-      <c r="GM1" s="1" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="GN1" s="1" t="inlineStr">
-        <is>
-          <t>terms</t>
-        </is>
-      </c>
-      <c r="GO1" s="1" t="inlineStr">
-        <is>
-          <t>instrument</t>
-        </is>
-      </c>
-      <c r="GP1" s="1" t="inlineStr">
+      <c r="HB1" s="1" t="inlineStr">
+        <is>
+          <t>access</t>
+        </is>
+      </c>
+      <c r="HC1" s="1" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="GQ1" s="1" t="inlineStr">
-        <is>
-          <t>longitudinal</t>
-        </is>
-      </c>
-      <c r="GR1" s="1" t="inlineStr">
-        <is>
-          <t>variables</t>
-        </is>
-      </c>
-      <c r="GS1" s="1" t="inlineStr">
-        <is>
-          <t>reports</t>
-        </is>
-      </c>
-      <c r="GT1" s="1" t="inlineStr">
-        <is>
-          <t>regression</t>
-        </is>
-      </c>
-      <c r="GU1" s="1" t="inlineStr">
-        <is>
-          <t>motivational</t>
-        </is>
-      </c>
-      <c r="GV1" s="1" t="inlineStr">
-        <is>
-          <t>average</t>
-        </is>
-      </c>
-      <c r="GW1" s="1" t="inlineStr">
-        <is>
-          <t>impact</t>
-        </is>
-      </c>
-      <c r="GX1" s="1" t="inlineStr">
-        <is>
-          <t>chinese</t>
-        </is>
-      </c>
-      <c r="GY1" s="1" t="inlineStr">
-        <is>
-          <t>important</t>
-        </is>
-      </c>
-      <c r="GZ1" s="1" t="inlineStr">
-        <is>
-          <t>implications</t>
-        </is>
-      </c>
-      <c r="HA1" s="1" t="inlineStr">
+      <c r="HD1" s="1" t="inlineStr">
         <is>
           <t>subjective</t>
         </is>
       </c>
-      <c r="HB1" s="1" t="inlineStr">
+      <c r="HE1" s="1" t="inlineStr">
+        <is>
+          <t>demands</t>
+        </is>
+      </c>
+      <c r="HF1" s="1" t="inlineStr">
+        <is>
+          <t>strengths</t>
+        </is>
+      </c>
+      <c r="HG1" s="1" t="inlineStr">
+        <is>
+          <t>narrative</t>
+        </is>
+      </c>
+      <c r="HH1" s="1" t="inlineStr">
+        <is>
+          <t>twice</t>
+        </is>
+      </c>
+      <c r="HI1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="HJ1" s="1" t="inlineStr">
+        <is>
+          <t>disability</t>
+        </is>
+      </c>
+      <c r="HK1" s="1" t="inlineStr">
+        <is>
+          <t>exceptional</t>
+        </is>
+      </c>
+      <c r="HL1" s="1" t="inlineStr">
+        <is>
+          <t>heterogeneity</t>
+        </is>
+      </c>
+      <c r="HM1" s="1" t="inlineStr">
+        <is>
+          <t>methods</t>
+        </is>
+      </c>
+      <c r="HN1" s="1" t="inlineStr">
+        <is>
+          <t>wj</t>
+        </is>
+      </c>
+      <c r="HO1" s="1" t="inlineStr">
         <is>
           <t>potentially</t>
         </is>
       </c>
-      <c r="HC1" s="1" t="inlineStr">
-        <is>
-          <t>twice</t>
-        </is>
-      </c>
-      <c r="HD1" s="1" t="inlineStr">
-        <is>
-          <t>wj</t>
-        </is>
-      </c>
-      <c r="HE1" s="1" t="inlineStr">
-        <is>
-          <t>heterogeneity</t>
-        </is>
-      </c>
-      <c r="HF1" s="1" t="inlineStr">
+      <c r="HP1" s="1" t="inlineStr">
+        <is>
+          <t>suggest</t>
+        </is>
+      </c>
+      <c r="HQ1" s="1" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
+      <c r="HR1" s="1" t="inlineStr">
         <is>
           <t>weaknesses</t>
         </is>
       </c>
-      <c r="HG1" s="1" t="inlineStr">
-        <is>
-          <t>strengths</t>
-        </is>
-      </c>
-      <c r="HH1" s="1" t="inlineStr">
-        <is>
-          <t>genius</t>
-        </is>
-      </c>
-      <c r="HI1" s="1" t="inlineStr">
-        <is>
-          <t>disability</t>
-        </is>
-      </c>
-      <c r="HJ1" s="1" t="inlineStr">
-        <is>
-          <t>genetic</t>
-        </is>
-      </c>
-      <c r="HK1" s="1" t="inlineStr">
-        <is>
-          <t>exception</t>
-        </is>
-      </c>
-      <c r="HL1" s="1" t="inlineStr">
-        <is>
-          <t>exceptional</t>
-        </is>
-      </c>
-      <c r="HM1" s="1" t="inlineStr">
-        <is>
-          <t>geniuses</t>
-        </is>
-      </c>
-      <c r="HN1" s="1" t="inlineStr">
-        <is>
-          <t>people</t>
-        </is>
-      </c>
-      <c r="HO1" s="1" t="inlineStr">
-        <is>
-          <t>demands</t>
-        </is>
-      </c>
-      <c r="HP1" s="1" t="inlineStr">
-        <is>
-          <t>historical</t>
-        </is>
-      </c>
-      <c r="HQ1" s="1" t="inlineStr">
-        <is>
-          <t>ii</t>
-        </is>
-      </c>
-      <c r="HR1" s="1" t="inlineStr">
-        <is>
-          <t>narrative</t>
-        </is>
-      </c>
       <c r="HS1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>variance</t>
         </is>
       </c>
       <c r="HT1" s="1" t="inlineStr">
         <is>
-          <t>volumes</t>
+          <t>various</t>
         </is>
       </c>
       <c r="HU1" s="1" t="inlineStr">
         <is>
-          <t>suggest</t>
+          <t>need</t>
         </is>
       </c>
       <c r="HV1" s="1" t="inlineStr">
         <is>
-          <t>traits</t>
+          <t>psychology</t>
         </is>
       </c>
       <c r="HW1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>context</t>
         </is>
       </c>
       <c r="HX1" s="1" t="inlineStr">
         <is>
-          <t>methods</t>
+          <t>multiple</t>
         </is>
       </c>
       <c r="HY1" s="1" t="inlineStr">
         <is>
-          <t>access</t>
+          <t>estimates</t>
         </is>
       </c>
       <c r="HZ1" s="1" t="inlineStr">
         <is>
-          <t>variance</t>
+          <t>adolescents</t>
         </is>
       </c>
       <c r="IA1" s="1" t="inlineStr">
         <is>
-          <t>need</t>
+          <t>different</t>
         </is>
       </c>
       <c r="IB1" s="1" t="inlineStr">
         <is>
-          <t>various</t>
+          <t>ctt</t>
         </is>
       </c>
       <c r="IC1" s="1" t="inlineStr">
         <is>
-          <t>psychology</t>
+          <t>measurement</t>
         </is>
       </c>
       <c r="ID1" s="1" t="inlineStr">
         <is>
-          <t>relationships</t>
+          <t>classical</t>
         </is>
       </c>
       <c r="IE1" s="1" t="inlineStr">
         <is>
-          <t>goal</t>
+          <t>importance</t>
         </is>
       </c>
       <c r="IF1" s="1" t="inlineStr">
         <is>
-          <t>needs</t>
+          <t>establishment</t>
         </is>
       </c>
       <c r="IG1" s="1" t="inlineStr">
         <is>
+          <t>dissemination</t>
+        </is>
+      </c>
+      <c r="IH1" s="1" t="inlineStr">
+        <is>
+          <t>application</t>
+        </is>
+      </c>
+      <c r="II1" s="1" t="inlineStr">
+        <is>
+          <t>above-level</t>
+        </is>
+      </c>
+      <c r="IJ1" s="1" t="inlineStr">
+        <is>
+          <t>systematic</t>
+        </is>
+      </c>
+      <c r="IK1" s="1" t="inlineStr">
+        <is>
+          <t>nature</t>
+        </is>
+      </c>
+      <c r="IL1" s="1" t="inlineStr">
+        <is>
+          <t>improved</t>
+        </is>
+      </c>
+      <c r="IM1" s="1" t="inlineStr">
+        <is>
           <t>search</t>
         </is>
       </c>
-      <c r="IH1" s="1" t="inlineStr">
-        <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="II1" s="1" t="inlineStr">
+      <c r="IN1" s="1" t="inlineStr">
+        <is>
+          <t>self-regulation</t>
+        </is>
+      </c>
+      <c r="IO1" s="1" t="inlineStr">
+        <is>
+          <t>procedures</t>
+        </is>
+      </c>
+      <c r="IP1" s="1" t="inlineStr">
+        <is>
+          <t>increase</t>
+        </is>
+      </c>
+      <c r="IQ1" s="1" t="inlineStr">
+        <is>
+          <t>meta-analysis</t>
+        </is>
+      </c>
+      <c r="IR1" s="1" t="inlineStr">
+        <is>
+          <t>middle</t>
+        </is>
+      </c>
+      <c r="IS1" s="1" t="inlineStr">
+        <is>
+          <t>matched</t>
+        </is>
+      </c>
+      <c r="IT1" s="1" t="inlineStr">
+        <is>
+          <t>whether</t>
+        </is>
+      </c>
+      <c r="IU1" s="1" t="inlineStr">
+        <is>
+          <t>univariate</t>
+        </is>
+      </c>
+      <c r="IV1" s="1" t="inlineStr">
+        <is>
+          <t>current</t>
+        </is>
+      </c>
+      <c r="IW1" s="1" t="inlineStr">
+        <is>
+          <t>higher</t>
+        </is>
+      </c>
+      <c r="IX1" s="1" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="IY1" s="1" t="inlineStr">
+        <is>
+          <t>social</t>
+        </is>
+      </c>
+      <c r="IZ1" s="1" t="inlineStr">
+        <is>
+          <t>york</t>
+        </is>
+      </c>
+      <c r="JA1" s="1" t="inlineStr">
+        <is>
+          <t>universal</t>
+        </is>
+      </c>
+      <c r="JB1" s="1" t="inlineStr">
+        <is>
+          <t>majority</t>
+        </is>
+      </c>
+      <c r="JC1" s="1" t="inlineStr">
         <is>
           <t>initial</t>
         </is>
       </c>
-      <c r="IJ1" s="1" t="inlineStr">
+      <c r="JD1" s="1" t="inlineStr">
+        <is>
+          <t>international</t>
+        </is>
+      </c>
+      <c r="JE1" s="1" t="inlineStr">
+        <is>
+          <t>interviewing</t>
+        </is>
+      </c>
+      <c r="JF1" s="1" t="inlineStr">
+        <is>
+          <t>policies</t>
+        </is>
+      </c>
+      <c r="JG1" s="1" t="inlineStr">
+        <is>
+          <t>baccalaureate</t>
+        </is>
+      </c>
+      <c r="JH1" s="1" t="inlineStr">
+        <is>
+          <t>applicability</t>
+        </is>
+      </c>
+      <c r="JI1" s="1" t="inlineStr">
         <is>
           <t>curricula</t>
         </is>
       </c>
-      <c r="IK1" s="1" t="inlineStr">
-        <is>
-          <t>systematic</t>
-        </is>
-      </c>
-      <c r="IL1" s="1" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="IM1" s="1" t="inlineStr">
+      <c r="JJ1" s="1" t="inlineStr">
+        <is>
+          <t>accelerate</t>
+        </is>
+      </c>
+      <c r="JK1" s="1" t="inlineStr">
         <is>
           <t>classes</t>
         </is>
       </c>
-      <c r="IN1" s="1" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="IO1" s="1" t="inlineStr">
-        <is>
-          <t>international</t>
-        </is>
-      </c>
-      <c r="IP1" s="1" t="inlineStr">
-        <is>
-          <t>baccalaureate</t>
-        </is>
-      </c>
-      <c r="IQ1" s="1" t="inlineStr">
-        <is>
-          <t>applicability</t>
-        </is>
-      </c>
-      <c r="IR1" s="1" t="inlineStr">
-        <is>
-          <t>meta-analysis</t>
-        </is>
-      </c>
-      <c r="IS1" s="1" t="inlineStr">
-        <is>
-          <t>whether</t>
-        </is>
-      </c>
-      <c r="IT1" s="1" t="inlineStr">
-        <is>
-          <t>ctt</t>
-        </is>
-      </c>
-      <c r="IU1" s="1" t="inlineStr">
-        <is>
-          <t>improved</t>
-        </is>
-      </c>
-      <c r="IV1" s="1" t="inlineStr">
-        <is>
-          <t>accelerated</t>
-        </is>
-      </c>
-      <c r="IW1" s="1" t="inlineStr">
-        <is>
-          <t>above-level</t>
-        </is>
-      </c>
-      <c r="IX1" s="1" t="inlineStr">
-        <is>
-          <t>adolescents</t>
-        </is>
-      </c>
-      <c r="IY1" s="1" t="inlineStr">
-        <is>
-          <t>different</t>
-        </is>
-      </c>
-      <c r="IZ1" s="1" t="inlineStr">
-        <is>
-          <t>classical</t>
-        </is>
-      </c>
-      <c r="JA1" s="1" t="inlineStr">
-        <is>
-          <t>context</t>
-        </is>
-      </c>
-      <c r="JB1" s="1" t="inlineStr">
-        <is>
-          <t>application</t>
-        </is>
-      </c>
-      <c r="JC1" s="1" t="inlineStr">
-        <is>
-          <t>current</t>
-        </is>
-      </c>
-      <c r="JD1" s="1" t="inlineStr">
-        <is>
-          <t>self-regulation</t>
-        </is>
-      </c>
-      <c r="JE1" s="1" t="inlineStr">
-        <is>
-          <t>middle</t>
-        </is>
-      </c>
-      <c r="JF1" s="1" t="inlineStr">
-        <is>
-          <t>interviewing</t>
-        </is>
-      </c>
-      <c r="JG1" s="1" t="inlineStr">
-        <is>
-          <t>majority</t>
-        </is>
-      </c>
-      <c r="JH1" s="1" t="inlineStr">
-        <is>
-          <t>increase</t>
-        </is>
-      </c>
-      <c r="JI1" s="1" t="inlineStr">
-        <is>
-          <t>first</t>
-        </is>
-      </c>
-      <c r="JJ1" s="1" t="inlineStr">
-        <is>
-          <t>higher</t>
-        </is>
-      </c>
-      <c r="JK1" s="1" t="inlineStr">
-        <is>
-          <t>matched</t>
-        </is>
-      </c>
       <c r="JL1" s="1" t="inlineStr">
         <is>
-          <t>univariate</t>
+          <t>supports</t>
         </is>
       </c>
       <c r="JM1" s="1" t="inlineStr">
         <is>
-          <t>social</t>
+          <t>rates</t>
         </is>
       </c>
       <c r="JN1" s="1" t="inlineStr">
         <is>
-          <t>nature</t>
+          <t>underachieving</t>
         </is>
       </c>
       <c r="JO1" s="1" t="inlineStr">
         <is>
-          <t>multiple</t>
+          <t>qualitative</t>
         </is>
       </c>
       <c r="JP1" s="1" t="inlineStr">
         <is>
-          <t>supports</t>
+          <t>significant</t>
         </is>
       </c>
       <c r="JQ1" s="1" t="inlineStr">
         <is>
-          <t>procedures</t>
+          <t>including</t>
         </is>
       </c>
       <c r="JR1" s="1" t="inlineStr">
         <is>
-          <t>estimates</t>
+          <t>one</t>
         </is>
       </c>
       <c r="JS1" s="1" t="inlineStr">
         <is>
+          <t>peers</t>
+        </is>
+      </c>
+      <c r="JT1" s="1" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="JU1" s="1" t="inlineStr">
+        <is>
           <t>children</t>
         </is>
       </c>
-      <c r="JT1" s="1" t="inlineStr">
-        <is>
-          <t>underachieving</t>
-        </is>
-      </c>
-      <c r="JU1" s="1" t="inlineStr">
-        <is>
-          <t>including</t>
-        </is>
-      </c>
       <c r="JV1" s="1" t="inlineStr">
         <is>
-          <t>one</t>
+          <t>instead</t>
         </is>
       </c>
       <c r="JW1" s="1" t="inlineStr">
         <is>
-          <t>set</t>
+          <t>lack</t>
         </is>
       </c>
       <c r="JX1" s="1" t="inlineStr">
         <is>
+          <t>interpret</t>
+        </is>
+      </c>
+      <c r="JY1" s="1" t="inlineStr">
+        <is>
+          <t>within</t>
+        </is>
+      </c>
+      <c r="JZ1" s="1" t="inlineStr">
+        <is>
+          <t>measures</t>
+        </is>
+      </c>
+      <c r="KA1" s="1" t="inlineStr">
+        <is>
           <t>provided</t>
         </is>
       </c>
-      <c r="JY1" s="1" t="inlineStr">
-        <is>
-          <t>interpret</t>
-        </is>
-      </c>
-      <c r="JZ1" s="1" t="inlineStr">
-        <is>
-          <t>lack</t>
-        </is>
-      </c>
-      <c r="KA1" s="1" t="inlineStr">
-        <is>
-          <t>qualitative</t>
-        </is>
-      </c>
       <c r="KB1" s="1" t="inlineStr">
         <is>
-          <t>peers</t>
+          <t>discussed</t>
         </is>
       </c>
       <c r="KC1" s="1" t="inlineStr">
         <is>
-          <t>within</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="KD1" s="1" t="inlineStr">
         <is>
-          <t>instead</t>
+          <t>interpersonal</t>
         </is>
       </c>
       <c r="KE1" s="1" t="inlineStr">
         <is>
-          <t>measures</t>
+          <t>follow-up</t>
         </is>
       </c>
       <c r="KF1" s="1" t="inlineStr">
         <is>
-          <t>discussed</t>
+          <t>two</t>
         </is>
       </c>
       <c r="KG1" s="1" t="inlineStr">
         <is>
-          <t>significant</t>
+          <t>ninth</t>
         </is>
       </c>
       <c r="KH1" s="1" t="inlineStr">
         <is>
-          <t>linear</t>
+          <t>models</t>
         </is>
       </c>
       <c r="KI1" s="1" t="inlineStr">
         <is>
-          <t>interpersonal</t>
+          <t>structural</t>
         </is>
       </c>
       <c r="KJ1" s="1" t="inlineStr">
         <is>
+          <t>self-oriented</t>
+        </is>
+      </c>
+      <c r="KK1" s="1" t="inlineStr">
+        <is>
+          <t>attendance</t>
+        </is>
+      </c>
+      <c r="KL1" s="1" t="inlineStr">
+        <is>
+          <t>modeling</t>
+        </is>
+      </c>
+      <c r="KM1" s="1" t="inlineStr">
+        <is>
+          <t>expectancy-value</t>
+        </is>
+      </c>
+      <c r="KN1" s="1" t="inlineStr">
+        <is>
+          <t>equation</t>
+        </is>
+      </c>
+      <c r="KO1" s="1" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="KP1" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="KQ1" s="1" t="inlineStr">
+        <is>
           <t>among</t>
         </is>
       </c>
-      <c r="KK1" s="1" t="inlineStr">
-        <is>
-          <t>rates</t>
-        </is>
-      </c>
-      <c r="KL1" s="1" t="inlineStr">
-        <is>
-          <t>two</t>
-        </is>
-      </c>
-      <c r="KM1" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="KN1" s="1" t="inlineStr">
+      <c r="KR1" s="1" t="inlineStr">
+        <is>
+          <t>future</t>
+        </is>
+      </c>
+      <c r="KS1" s="1" t="inlineStr">
         <is>
           <t>anova</t>
         </is>
       </c>
-      <c r="KO1" s="1" t="inlineStr">
-        <is>
-          <t>policies</t>
-        </is>
-      </c>
-      <c r="KP1" s="1" t="inlineStr">
-        <is>
-          <t>dissemination</t>
-        </is>
-      </c>
-      <c r="KQ1" s="1" t="inlineStr">
-        <is>
-          <t>establishment</t>
-        </is>
-      </c>
-      <c r="KR1" s="1" t="inlineStr">
-        <is>
-          <t>structural</t>
-        </is>
-      </c>
-      <c r="KS1" s="1" t="inlineStr">
-        <is>
-          <t>universal</t>
-        </is>
-      </c>
       <c r="KT1" s="1" t="inlineStr">
         <is>
-          <t>self-oriented</t>
+          <t>aspects</t>
         </is>
       </c>
       <c r="KU1" s="1" t="inlineStr">
         <is>
-          <t>ninth</t>
+          <t>clear</t>
         </is>
       </c>
       <c r="KV1" s="1" t="inlineStr">
         <is>
-          <t>models</t>
+          <t>overall</t>
         </is>
       </c>
       <c r="KW1" s="1" t="inlineStr">
         <is>
-          <t>york</t>
+          <t>intelligence</t>
         </is>
       </c>
       <c r="KX1" s="1" t="inlineStr">
         <is>
-          <t>attendance</t>
+          <t>began</t>
         </is>
       </c>
       <c r="KY1" s="1" t="inlineStr">
         <is>
-          <t>future</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="KZ1" s="1" t="inlineStr">
         <is>
-          <t>expectancy-value</t>
+          <t>appear</t>
         </is>
       </c>
       <c r="LA1" s="1" t="inlineStr">
         <is>
-          <t>equation</t>
+          <t>learners</t>
         </is>
       </c>
       <c r="LB1" s="1" t="inlineStr">
         <is>
-          <t>importance</t>
+          <t>means</t>
         </is>
       </c>
       <c r="LC1" s="1" t="inlineStr">
         <is>
-          <t>modeling</t>
+          <t>number</t>
         </is>
       </c>
       <c r="LD1" s="1" t="inlineStr">
         <is>
-          <t>follow-up</t>
+          <t>related</t>
         </is>
       </c>
       <c r="LE1" s="1" t="inlineStr">
         <is>
-          <t>direct</t>
+          <t>childhood</t>
         </is>
       </c>
       <c r="LF1" s="1" t="inlineStr">
         <is>
+          <t>curricular</t>
+        </is>
+      </c>
+      <c r="LG1" s="1" t="inlineStr">
+        <is>
+          <t>largely</t>
+        </is>
+      </c>
+      <c r="LH1" s="1" t="inlineStr">
+        <is>
+          <t>accepted</t>
+        </is>
+      </c>
+      <c r="LI1" s="1" t="inlineStr">
+        <is>
+          <t>develops</t>
+        </is>
+      </c>
+      <c r="LJ1" s="1" t="inlineStr">
+        <is>
+          <t>tale</t>
+        </is>
+      </c>
+      <c r="LK1" s="1" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="LL1" s="1" t="inlineStr">
+        <is>
+          <t>disrupted</t>
+        </is>
+      </c>
+      <c r="LM1" s="1" t="inlineStr">
+        <is>
+          <t>testing</t>
+        </is>
+      </c>
+      <c r="LN1" s="1" t="inlineStr">
+        <is>
+          <t>resolve</t>
+        </is>
+      </c>
+      <c r="LO1" s="1" t="inlineStr">
+        <is>
+          <t>self-perceptions</t>
+        </is>
+      </c>
+      <c r="LP1" s="1" t="inlineStr">
+        <is>
+          <t>sudden</t>
+        </is>
+      </c>
+      <c r="LQ1" s="1" t="inlineStr">
+        <is>
+          <t>appropriate</t>
+        </is>
+      </c>
+      <c r="LR1" s="1" t="inlineStr">
+        <is>
+          <t>telling</t>
+        </is>
+      </c>
+      <c r="LS1" s="1" t="inlineStr">
+        <is>
+          <t>demonstrate</t>
+        </is>
+      </c>
+      <c r="LT1" s="1" t="inlineStr">
+        <is>
+          <t>transitioning</t>
+        </is>
+      </c>
+      <c r="LU1" s="1" t="inlineStr">
+        <is>
+          <t>analyses</t>
+        </is>
+      </c>
+      <c r="LV1" s="1" t="inlineStr">
+        <is>
+          <t>make</t>
+        </is>
+      </c>
+      <c r="LW1" s="1" t="inlineStr">
+        <is>
+          <t>logistic</t>
+        </is>
+      </c>
+      <c r="LX1" s="1" t="inlineStr">
+        <is>
+          <t>analyzed</t>
+        </is>
+      </c>
+      <c r="LY1" s="1" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="LZ1" s="1" t="inlineStr">
+        <is>
+          <t>considered</t>
+        </is>
+      </c>
+      <c r="MA1" s="1" t="inlineStr">
+        <is>
+          <t>resolution</t>
+        </is>
+      </c>
+      <c r="MB1" s="1" t="inlineStr">
+        <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="LG1" s="1" t="inlineStr">
-        <is>
-          <t>learners</t>
-        </is>
-      </c>
-      <c r="LH1" s="1" t="inlineStr">
-        <is>
-          <t>considered</t>
-        </is>
-      </c>
-      <c r="LI1" s="1" t="inlineStr">
+      <c r="MC1" s="1" t="inlineStr">
+        <is>
+          <t>package</t>
+        </is>
+      </c>
+      <c r="MD1" s="1" t="inlineStr">
+        <is>
+          <t>narratives</t>
+        </is>
+      </c>
+      <c r="ME1" s="1" t="inlineStr">
+        <is>
+          <t>finally</t>
+        </is>
+      </c>
+      <c r="MF1" s="1" t="inlineStr">
+        <is>
+          <t>survey</t>
+        </is>
+      </c>
+      <c r="MG1" s="1" t="inlineStr">
+        <is>
+          <t>mind</t>
+        </is>
+      </c>
+      <c r="MH1" s="1" t="inlineStr">
         <is>
           <t>one-way</t>
         </is>
       </c>
-      <c r="LJ1" s="1" t="inlineStr">
+      <c r="MI1" s="1" t="inlineStr">
         <is>
           <t>address</t>
         </is>
       </c>
-      <c r="LK1" s="1" t="inlineStr">
-        <is>
-          <t>logistic</t>
-        </is>
-      </c>
-      <c r="LL1" s="1" t="inlineStr">
-        <is>
-          <t>mixed</t>
-        </is>
-      </c>
-      <c r="LM1" s="1" t="inlineStr">
-        <is>
-          <t>make</t>
-        </is>
-      </c>
-      <c r="LN1" s="1" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="LO1" s="1" t="inlineStr">
-        <is>
-          <t>demonstrate</t>
-        </is>
-      </c>
-      <c r="LP1" s="1" t="inlineStr">
-        <is>
-          <t>effect</t>
-        </is>
-      </c>
-      <c r="LQ1" s="1" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-      <c r="LR1" s="1" t="inlineStr">
-        <is>
-          <t>means</t>
-        </is>
-      </c>
-      <c r="LS1" s="1" t="inlineStr">
-        <is>
-          <t>childhood</t>
-        </is>
-      </c>
-      <c r="LT1" s="1" t="inlineStr">
-        <is>
-          <t>intelligence</t>
-        </is>
-      </c>
-      <c r="LU1" s="1" t="inlineStr">
-        <is>
-          <t>from</t>
-        </is>
-      </c>
-      <c r="LV1" s="1" t="inlineStr">
-        <is>
-          <t>analyses</t>
-        </is>
-      </c>
-      <c r="LW1" s="1" t="inlineStr">
-        <is>
-          <t>appropriate</t>
-        </is>
-      </c>
-      <c r="LX1" s="1" t="inlineStr">
-        <is>
-          <t>analyzed</t>
-        </is>
-      </c>
-      <c r="LY1" s="1" t="inlineStr">
-        <is>
-          <t>related</t>
-        </is>
-      </c>
-      <c r="LZ1" s="1" t="inlineStr">
-        <is>
-          <t>overall</t>
-        </is>
-      </c>
-      <c r="MA1" s="1" t="inlineStr">
-        <is>
-          <t>largely</t>
-        </is>
-      </c>
-      <c r="MB1" s="1" t="inlineStr">
+      <c r="MJ1" s="1" t="inlineStr">
+        <is>
+          <t>multiple-narrative</t>
+        </is>
+      </c>
+      <c r="MK1" s="1" t="inlineStr">
+        <is>
+          <t>experienced</t>
+        </is>
+      </c>
+      <c r="ML1" s="1" t="inlineStr">
+        <is>
+          <t>practice-based</t>
+        </is>
+      </c>
+      <c r="MM1" s="1" t="inlineStr">
+        <is>
+          <t>pedagogy</t>
+        </is>
+      </c>
+      <c r="MN1" s="1" t="inlineStr">
+        <is>
+          <t>onset</t>
+        </is>
+      </c>
+      <c r="MO1" s="1" t="inlineStr">
+        <is>
+          <t>maintenance</t>
+        </is>
+      </c>
+      <c r="MP1" s="1" t="inlineStr">
+        <is>
+          <t>attention</t>
+        </is>
+      </c>
+      <c r="MQ1" s="1" t="inlineStr">
+        <is>
+          <t>problems</t>
+        </is>
+      </c>
+      <c r="MR1" s="1" t="inlineStr">
+        <is>
+          <t>perceived</t>
+        </is>
+      </c>
+      <c r="MS1" s="1" t="inlineStr">
+        <is>
+          <t>grades</t>
+        </is>
+      </c>
+      <c r="MT1" s="1" t="inlineStr">
+        <is>
+          <t>attentional</t>
+        </is>
+      </c>
+      <c r="MU1" s="1" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="MV1" s="1" t="inlineStr">
+        <is>
+          <t>face</t>
+        </is>
+      </c>
+      <c r="MW1" s="1" t="inlineStr">
+        <is>
+          <t>leading</t>
+        </is>
+      </c>
+      <c r="MX1" s="1" t="inlineStr">
+        <is>
+          <t>hyperactivity</t>
+        </is>
+      </c>
+      <c r="MY1" s="1" t="inlineStr">
+        <is>
+          <t>elevated</t>
+        </is>
+      </c>
+      <c r="MZ1" s="1" t="inlineStr">
         <is>
           <t>matching</t>
         </is>
       </c>
-      <c r="MC1" s="1" t="inlineStr">
+      <c r="NA1" s="1" t="inlineStr">
+        <is>
+          <t>criteria</t>
+        </is>
+      </c>
+      <c r="NB1" s="1" t="inlineStr">
+        <is>
+          <t>specialized</t>
+        </is>
+      </c>
+      <c r="NC1" s="1" t="inlineStr">
+        <is>
+          <t>n=</t>
+        </is>
+      </c>
+      <c r="ND1" s="1" t="inlineStr">
+        <is>
+          <t>transition</t>
+        </is>
+      </c>
+      <c r="NE1" s="1" t="inlineStr">
+        <is>
+          <t>rated</t>
+        </is>
+      </c>
+      <c r="NF1" s="1" t="inlineStr">
+        <is>
+          <t>standardized</t>
+        </is>
+      </c>
+      <c r="NG1" s="1" t="inlineStr">
+        <is>
+          <t>potential</t>
+        </is>
+      </c>
+      <c r="NH1" s="1" t="inlineStr">
+        <is>
+          <t>differentiate</t>
+        </is>
+      </c>
+      <c r="NI1" s="1" t="inlineStr">
+        <is>
+          <t>assessment</t>
+        </is>
+      </c>
+      <c r="NJ1" s="1" t="inlineStr">
+        <is>
+          <t>highlight</t>
+        </is>
+      </c>
+      <c r="NK1" s="1" t="inlineStr">
+        <is>
+          <t>useful</t>
+        </is>
+      </c>
+      <c r="NL1" s="1" t="inlineStr">
+        <is>
+          <t>unique</t>
+        </is>
+      </c>
+      <c r="NM1" s="1" t="inlineStr">
+        <is>
+          <t>urban</t>
+        </is>
+      </c>
+      <c r="NN1" s="1" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="NO1" s="1" t="inlineStr">
         <is>
           <t>second</t>
         </is>
       </c>
-      <c r="MD1" s="1" t="inlineStr">
+      <c r="NP1" s="1" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="NQ1" s="1" t="inlineStr">
+        <is>
+          <t>examine</t>
+        </is>
+      </c>
+      <c r="NR1" s="1" t="inlineStr">
+        <is>
+          <t>representative</t>
+        </is>
+      </c>
+      <c r="NS1" s="1" t="inlineStr">
+        <is>
+          <t>mental</t>
+        </is>
+      </c>
+      <c r="NT1" s="1" t="inlineStr">
+        <is>
+          <t>nationally</t>
+        </is>
+      </c>
+      <c r="NU1" s="1" t="inlineStr">
+        <is>
+          <t>samples</t>
+        </is>
+      </c>
+      <c r="NV1" s="1" t="inlineStr">
+        <is>
+          <t>reading</t>
+        </is>
+      </c>
+      <c r="NW1" s="1" t="inlineStr">
+        <is>
+          <t>times</t>
+        </is>
+      </c>
+      <c r="NX1" s="1" t="inlineStr">
+        <is>
+          <t>symptoms</t>
+        </is>
+      </c>
+      <c r="NY1" s="1" t="inlineStr">
         <is>
           <t>screening</t>
         </is>
       </c>
-      <c r="ME1" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="MF1" s="1" t="inlineStr">
-        <is>
-          <t>leading</t>
-        </is>
-      </c>
-      <c r="MG1" s="1" t="inlineStr">
-        <is>
-          <t>grades</t>
-        </is>
-      </c>
-      <c r="MH1" s="1" t="inlineStr">
+      <c r="NZ1" s="1" t="inlineStr">
         <is>
           <t>scales</t>
         </is>
       </c>
-      <c r="MI1" s="1" t="inlineStr">
+      <c r="OA1" s="1" t="inlineStr">
+        <is>
+          <t>quality</t>
+        </is>
+      </c>
+      <c r="OB1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="OC1" s="1" t="inlineStr">
+        <is>
+          <t>rating</t>
+        </is>
+      </c>
+      <c r="OD1" s="1" t="inlineStr">
         <is>
           <t>functioning</t>
         </is>
       </c>
-      <c r="MJ1" s="1" t="inlineStr">
-        <is>
-          <t>symptoms</t>
-        </is>
-      </c>
-      <c r="MK1" s="1" t="inlineStr">
-        <is>
-          <t>urban</t>
-        </is>
-      </c>
-      <c r="ML1" s="1" t="inlineStr">
-        <is>
-          <t>useful</t>
-        </is>
-      </c>
-      <c r="MM1" s="1" t="inlineStr">
-        <is>
-          <t>times</t>
-        </is>
-      </c>
-      <c r="MN1" s="1" t="inlineStr">
-        <is>
-          <t>examine</t>
-        </is>
-      </c>
-      <c r="MO1" s="1" t="inlineStr">
-        <is>
-          <t>large</t>
-        </is>
-      </c>
-      <c r="MP1" s="1" t="inlineStr">
-        <is>
-          <t>mental</t>
-        </is>
-      </c>
-      <c r="MQ1" s="1" t="inlineStr">
-        <is>
-          <t>perceived</t>
-        </is>
-      </c>
-      <c r="MR1" s="1" t="inlineStr">
-        <is>
-          <t>unique</t>
-        </is>
-      </c>
-      <c r="MS1" s="1" t="inlineStr">
-        <is>
-          <t>scale</t>
-        </is>
-      </c>
-      <c r="MT1" s="1" t="inlineStr">
-        <is>
-          <t>it</t>
-        </is>
-      </c>
-      <c r="MU1" s="1" t="inlineStr">
-        <is>
-          <t>standardized</t>
-        </is>
-      </c>
-      <c r="MV1" s="1" t="inlineStr">
-        <is>
-          <t>face</t>
-        </is>
-      </c>
-      <c r="MW1" s="1" t="inlineStr">
-        <is>
-          <t>transition</t>
-        </is>
-      </c>
-      <c r="MX1" s="1" t="inlineStr">
-        <is>
-          <t>n=</t>
-        </is>
-      </c>
-      <c r="MY1" s="1" t="inlineStr">
-        <is>
-          <t>attentional</t>
-        </is>
-      </c>
-      <c r="MZ1" s="1" t="inlineStr">
-        <is>
-          <t>criteria</t>
-        </is>
-      </c>
-      <c r="NA1" s="1" t="inlineStr">
-        <is>
-          <t>samples</t>
-        </is>
-      </c>
-      <c r="NB1" s="1" t="inlineStr">
-        <is>
-          <t>elevated</t>
-        </is>
-      </c>
-      <c r="NC1" s="1" t="inlineStr">
-        <is>
-          <t>hyperactivity</t>
-        </is>
-      </c>
-      <c r="ND1" s="1" t="inlineStr">
-        <is>
-          <t>reading</t>
-        </is>
-      </c>
-      <c r="NE1" s="1" t="inlineStr">
-        <is>
-          <t>met</t>
-        </is>
-      </c>
-      <c r="NF1" s="1" t="inlineStr">
-        <is>
-          <t>problems</t>
-        </is>
-      </c>
-      <c r="NG1" s="1" t="inlineStr">
-        <is>
-          <t>rated</t>
-        </is>
-      </c>
-      <c r="NH1" s="1" t="inlineStr">
-        <is>
-          <t>rating</t>
-        </is>
-      </c>
-      <c r="NI1" s="1" t="inlineStr">
-        <is>
-          <t>quality</t>
-        </is>
-      </c>
-      <c r="NJ1" s="1" t="inlineStr">
-        <is>
-          <t>national</t>
-        </is>
-      </c>
-      <c r="NK1" s="1" t="inlineStr">
-        <is>
-          <t>specialized</t>
-        </is>
-      </c>
-      <c r="NL1" s="1" t="inlineStr">
-        <is>
-          <t>attention</t>
-        </is>
-      </c>
-      <c r="NM1" s="1" t="inlineStr">
-        <is>
-          <t>experienced</t>
-        </is>
-      </c>
-      <c r="NN1" s="1" t="inlineStr">
-        <is>
-          <t>curricular</t>
-        </is>
-      </c>
-      <c r="NO1" s="1" t="inlineStr">
-        <is>
-          <t>disrupted</t>
-        </is>
-      </c>
-      <c r="NP1" s="1" t="inlineStr">
-        <is>
-          <t>onset</t>
-        </is>
-      </c>
-      <c r="NQ1" s="1" t="inlineStr">
-        <is>
-          <t>finally</t>
-        </is>
-      </c>
-      <c r="NR1" s="1" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="NS1" s="1" t="inlineStr">
-        <is>
-          <t>how</t>
-        </is>
-      </c>
-      <c r="NT1" s="1" t="inlineStr">
-        <is>
-          <t>transitioning</t>
-        </is>
-      </c>
-      <c r="NU1" s="1" t="inlineStr">
-        <is>
-          <t>package</t>
-        </is>
-      </c>
-      <c r="NV1" s="1" t="inlineStr">
-        <is>
-          <t>telling</t>
-        </is>
-      </c>
-      <c r="NW1" s="1" t="inlineStr">
-        <is>
-          <t>pedagogy</t>
-        </is>
-      </c>
-      <c r="NX1" s="1" t="inlineStr">
-        <is>
-          <t>maintenance</t>
-        </is>
-      </c>
-      <c r="NY1" s="1" t="inlineStr">
-        <is>
-          <t>practice-based</t>
-        </is>
-      </c>
-      <c r="NZ1" s="1" t="inlineStr">
-        <is>
-          <t>mind</t>
-        </is>
-      </c>
-      <c r="OA1" s="1" t="inlineStr">
-        <is>
-          <t>tale</t>
-        </is>
-      </c>
-      <c r="OB1" s="1" t="inlineStr">
-        <is>
-          <t>multiple-narrative</t>
-        </is>
-      </c>
-      <c r="OC1" s="1" t="inlineStr">
-        <is>
-          <t>sudden</t>
-        </is>
-      </c>
-      <c r="OD1" s="1" t="inlineStr">
-        <is>
-          <t>self-perceptions</t>
-        </is>
-      </c>
       <c r="OE1" s="1" t="inlineStr">
         <is>
-          <t>resolve</t>
+          <t>perspective</t>
         </is>
       </c>
       <c r="OF1" s="1" t="inlineStr">
         <is>
-          <t>resolution</t>
+          <t>psychological</t>
         </is>
       </c>
       <c r="OG1" s="1" t="inlineStr">
         <is>
-          <t>survey</t>
+          <t>lives</t>
         </is>
       </c>
       <c r="OH1" s="1" t="inlineStr">
         <is>
-          <t>develops</t>
+          <t>discussion</t>
         </is>
       </c>
       <c r="OI1" s="1" t="inlineStr">
         <is>
-          <t>narratives</t>
+          <t>parental</t>
         </is>
       </c>
       <c r="OJ1" s="1" t="inlineStr">
         <is>
-          <t>clear</t>
+          <t>score</t>
         </is>
       </c>
       <c r="OK1" s="1" t="inlineStr">
         <is>
-          <t>began</t>
+          <t>nnat</t>
         </is>
       </c>
       <c r="OL1" s="1" t="inlineStr">
         <is>
-          <t>accepted</t>
+          <t>traditionally</t>
         </is>
       </c>
       <c r="OM1" s="1" t="inlineStr">
         <is>
-          <t>appear</t>
+          <t>taking</t>
         </is>
       </c>
       <c r="ON1" s="1" t="inlineStr">
         <is>
-          <t>aspects</t>
+          <t>especially</t>
         </is>
       </c>
       <c r="OO1" s="1" t="inlineStr">
         <is>
-          <t>psychological</t>
+          <t>validity</t>
         </is>
       </c>
       <c r="OP1" s="1" t="inlineStr">
         <is>
-          <t>lives</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="OQ1" s="1" t="inlineStr">
         <is>
-          <t>parental</t>
+          <t>explore</t>
         </is>
       </c>
       <c r="OR1" s="1" t="inlineStr">
         <is>
-          <t>perspective</t>
+          <t>advanced</t>
         </is>
       </c>
       <c r="OS1" s="1" t="inlineStr">
         <is>
-          <t>score</t>
+          <t>showed</t>
         </is>
       </c>
       <c r="OT1" s="1" t="inlineStr">
         <is>
-          <t>discussion</t>
+          <t>instruments</t>
         </is>
       </c>
       <c r="OU1" s="1" t="inlineStr">
         <is>
+          <t>social-cultural</t>
+        </is>
+      </c>
+      <c r="OV1" s="1" t="inlineStr">
+        <is>
+          <t>cutoff</t>
+        </is>
+      </c>
+      <c r="OW1" s="1" t="inlineStr">
+        <is>
+          <t>cogat</t>
+        </is>
+      </c>
+      <c r="OX1" s="1" t="inlineStr">
+        <is>
+          <t>science</t>
+        </is>
+      </c>
+      <c r="OY1" s="1" t="inlineStr">
+        <is>
+          <t>reduce</t>
+        </is>
+      </c>
+      <c r="OZ1" s="1" t="inlineStr">
+        <is>
+          <t>conducted</t>
+        </is>
+      </c>
+      <c r="PA1" s="1" t="inlineStr">
+        <is>
+          <t>reliability</t>
+        </is>
+      </c>
+      <c r="PB1" s="1" t="inlineStr">
+        <is>
+          <t>explored</t>
+        </is>
+      </c>
+      <c r="PC1" s="1" t="inlineStr">
+        <is>
           <t>obtained</t>
         </is>
       </c>
-      <c r="OV1" s="1" t="inlineStr">
+      <c r="PD1" s="1" t="inlineStr">
+        <is>
+          <t>domains</t>
+        </is>
+      </c>
+      <c r="PE1" s="1" t="inlineStr">
         <is>
           <t>comparison</t>
         </is>
       </c>
-      <c r="OW1" s="1" t="inlineStr">
+      <c r="PF1" s="1" t="inlineStr">
         <is>
           <t>coursework</t>
         </is>
       </c>
-      <c r="OX1" s="1" t="inlineStr">
-        <is>
-          <t>differentiate</t>
-        </is>
-      </c>
-      <c r="OY1" s="1" t="inlineStr">
-        <is>
-          <t>explored</t>
-        </is>
-      </c>
-      <c r="OZ1" s="1" t="inlineStr">
-        <is>
-          <t>reduce</t>
-        </is>
-      </c>
-      <c r="PA1" s="1" t="inlineStr">
-        <is>
-          <t>advanced</t>
-        </is>
-      </c>
-      <c r="PB1" s="1" t="inlineStr">
-        <is>
-          <t>conducted</t>
-        </is>
-      </c>
-      <c r="PC1" s="1" t="inlineStr">
-        <is>
-          <t>traditionally</t>
-        </is>
-      </c>
-      <c r="PD1" s="1" t="inlineStr">
-        <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="PE1" s="1" t="inlineStr">
-        <is>
-          <t>reliability</t>
-        </is>
-      </c>
-      <c r="PF1" s="1" t="inlineStr">
-        <is>
-          <t>nnat</t>
-        </is>
-      </c>
       <c r="PG1" s="1" t="inlineStr">
         <is>
-          <t>science</t>
+          <t>indicated</t>
         </is>
       </c>
       <c r="PH1" s="1" t="inlineStr">
         <is>
-          <t>assessment</t>
+          <t>ratings</t>
         </is>
       </c>
       <c r="PI1" s="1" t="inlineStr">
         <is>
-          <t>taking</t>
+          <t>39,213</t>
         </is>
       </c>
       <c r="PJ1" s="1" t="inlineStr">
         <is>
-          <t>cogat</t>
+          <t>ethnicity</t>
         </is>
       </c>
       <c r="PK1" s="1" t="inlineStr">
         <is>
-          <t>cutoff</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="PL1" s="1" t="inlineStr">
         <is>
-          <t>validity</t>
+          <t>ethnically</t>
         </is>
       </c>
       <c r="PM1" s="1" t="inlineStr">
         <is>
-          <t>explore</t>
+          <t>designed</t>
         </is>
       </c>
       <c r="PN1" s="1" t="inlineStr">
         <is>
-          <t>instruments</t>
+          <t>assessments</t>
         </is>
       </c>
       <c r="PO1" s="1" t="inlineStr">
         <is>
-          <t>potential</t>
+          <t>status</t>
         </is>
       </c>
       <c r="PP1" s="1" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>white</t>
         </is>
       </c>
       <c r="PQ1" s="1" t="inlineStr">
         <is>
-          <t>social-cultural</t>
+          <t>present</t>
         </is>
       </c>
       <c r="PR1" s="1" t="inlineStr">
         <is>
-          <t>highlight</t>
+          <t>finding</t>
         </is>
       </c>
       <c r="PS1" s="1" t="inlineStr">
         <is>
-          <t>domains</t>
+          <t>reported</t>
         </is>
       </c>
       <c r="PT1" s="1" t="inlineStr">
         <is>
-          <t>especially</t>
+          <t>half</t>
         </is>
       </c>
       <c r="PU1" s="1" t="inlineStr">
         <is>
-          <t>nationally</t>
+          <t>underrepresented</t>
         </is>
       </c>
       <c r="PV1" s="1" t="inlineStr">
         <is>
-          <t>representative</t>
+          <t>black</t>
         </is>
       </c>
       <c r="PW1" s="1" t="inlineStr">
         <is>
+          <t>boys</t>
+        </is>
+      </c>
+      <c r="PX1" s="1" t="inlineStr">
+        <is>
+          <t>child</t>
+        </is>
+      </c>
+      <c r="PY1" s="1" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="PZ1" s="1" t="inlineStr">
+        <is>
+          <t>great</t>
+        </is>
+      </c>
+      <c r="QA1" s="1" t="inlineStr">
+        <is>
+          <t>diverse</t>
+        </is>
+      </c>
+      <c r="QB1" s="1" t="inlineStr">
+        <is>
+          <t>learner</t>
+        </is>
+      </c>
+      <c r="QC1" s="1" t="inlineStr">
+        <is>
+          <t>14.2</t>
+        </is>
+      </c>
+      <c r="QD1" s="1" t="inlineStr">
+        <is>
+          <t>problem</t>
+        </is>
+      </c>
+      <c r="QE1" s="1" t="inlineStr">
+        <is>
+          <t>valuation</t>
+        </is>
+      </c>
+      <c r="QF1" s="1" t="inlineStr">
+        <is>
+          <t>measured</t>
+        </is>
+      </c>
+      <c r="QG1" s="1" t="inlineStr">
+        <is>
+          <t>large-scale</t>
+        </is>
+      </c>
+      <c r="QH1" s="1" t="inlineStr">
+        <is>
+          <t>k-5th</t>
+        </is>
+      </c>
+      <c r="QI1" s="1" t="inlineStr">
+        <is>
+          <t>programs</t>
+        </is>
+      </c>
+      <c r="QJ1" s="1" t="inlineStr">
+        <is>
+          <t>predicting</t>
+        </is>
+      </c>
+      <c r="QK1" s="1" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+      <c r="QL1" s="1" t="inlineStr">
+        <is>
           <t>furthermore</t>
         </is>
       </c>
-      <c r="PX1" s="1" t="inlineStr">
-        <is>
-          <t>ethnicity</t>
-        </is>
-      </c>
-      <c r="PY1" s="1" t="inlineStr">
-        <is>
-          <t>white</t>
-        </is>
-      </c>
-      <c r="PZ1" s="1" t="inlineStr">
-        <is>
-          <t>finding</t>
-        </is>
-      </c>
-      <c r="QA1" s="1" t="inlineStr">
-        <is>
-          <t>great</t>
-        </is>
-      </c>
-      <c r="QB1" s="1" t="inlineStr">
-        <is>
-          <t>present</t>
-        </is>
-      </c>
-      <c r="QC1" s="1" t="inlineStr">
-        <is>
-          <t>boys</t>
-        </is>
-      </c>
-      <c r="QD1" s="1" t="inlineStr">
-        <is>
-          <t>diverse</t>
-        </is>
-      </c>
-      <c r="QE1" s="1" t="inlineStr">
-        <is>
-          <t>child</t>
-        </is>
-      </c>
-      <c r="QF1" s="1" t="inlineStr">
-        <is>
-          <t>half</t>
-        </is>
-      </c>
-      <c r="QG1" s="1" t="inlineStr">
-        <is>
-          <t>black</t>
-        </is>
-      </c>
-      <c r="QH1" s="1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="QI1" s="1" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="QJ1" s="1" t="inlineStr">
-        <is>
-          <t>even</t>
-        </is>
-      </c>
-      <c r="QK1" s="1" t="inlineStr">
+      <c r="QM1" s="1" t="inlineStr">
+        <is>
+          <t>latino</t>
+        </is>
+      </c>
+      <c r="QN1" s="1" t="inlineStr">
         <is>
           <t>excellence</t>
         </is>
       </c>
-      <c r="QL1" s="1" t="inlineStr">
-        <is>
-          <t>measured</t>
-        </is>
-      </c>
-      <c r="QM1" s="1" t="inlineStr">
+      <c r="QO1" s="1" t="inlineStr">
+        <is>
+          <t>concerning</t>
+        </is>
+      </c>
+      <c r="QP1" s="1" t="inlineStr">
+        <is>
+          <t>self-efficacy</t>
+        </is>
+      </c>
+      <c r="QQ1" s="1" t="inlineStr">
+        <is>
+          <t>prospectively</t>
+        </is>
+      </c>
+      <c r="QR1" s="1" t="inlineStr">
         <is>
           <t>eventual</t>
         </is>
       </c>
-      <c r="QN1" s="1" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="QO1" s="1" t="inlineStr">
-        <is>
-          <t>these</t>
-        </is>
-      </c>
-      <c r="QP1" s="1" t="inlineStr">
-        <is>
-          <t>indicated</t>
-        </is>
-      </c>
-      <c r="QQ1" s="1" t="inlineStr">
-        <is>
-          <t>gender</t>
-        </is>
-      </c>
-      <c r="QR1" s="1" t="inlineStr">
-        <is>
-          <t>k-5th</t>
-        </is>
-      </c>
       <c r="QS1" s="1" t="inlineStr">
         <is>
-          <t>large-scale</t>
+          <t>compare</t>
         </is>
       </c>
       <c r="QT1" s="1" t="inlineStr">
         <is>
-          <t>latino</t>
+          <t>heuristic</t>
         </is>
       </c>
       <c r="QU1" s="1" t="inlineStr">
         <is>
-          <t>ratings</t>
+          <t>better</t>
         </is>
       </c>
       <c r="QV1" s="1" t="inlineStr">
         <is>
-          <t>predicting</t>
+          <t>consult</t>
         </is>
       </c>
       <c r="QW1" s="1" t="inlineStr">
         <is>
-          <t>learner</t>
+          <t>spss</t>
         </is>
       </c>
       <c r="QX1" s="1" t="inlineStr">
         <is>
-          <t>assessments</t>
+          <t>factorial</t>
         </is>
       </c>
       <c r="QY1" s="1" t="inlineStr">
         <is>
-          <t>ethnically</t>
+          <t>complicated</t>
         </is>
       </c>
       <c r="QZ1" s="1" t="inlineStr">
         <is>
-          <t>39,213</t>
+          <t>introducing</t>
         </is>
       </c>
       <c r="RA1" s="1" t="inlineStr">
         <is>
-          <t>compare</t>
+          <t>limited</t>
         </is>
       </c>
       <c r="RB1" s="1" t="inlineStr">
         <is>
-          <t>valuation</t>
+          <t>available</t>
         </is>
       </c>
       <c r="RC1" s="1" t="inlineStr">
         <is>
-          <t>underrepresented</t>
+          <t>conceptual</t>
         </is>
       </c>
       <c r="RD1" s="1" t="inlineStr">
         <is>
-          <t>problem</t>
+          <t>strategies</t>
         </is>
       </c>
       <c r="RE1" s="1" t="inlineStr">
         <is>
-          <t>reported</t>
+          <t>alternatives</t>
         </is>
       </c>
       <c r="RF1" s="1" t="inlineStr">
         <is>
-          <t>prospectively</t>
+          <t>56</t>
         </is>
       </c>
       <c r="RG1" s="1" t="inlineStr">
         <is>
-          <t>self-efficacy</t>
+          <t>syntax</t>
         </is>
       </c>
       <c r="RH1" s="1" t="inlineStr">
         <is>
-          <t>concerning</t>
+          <t>technique</t>
         </is>
       </c>
       <c r="RI1" s="1" t="inlineStr">
         <is>
-          <t>programs</t>
+          <t>accordingly</t>
         </is>
       </c>
       <c r="RJ1" s="1" t="inlineStr">
         <is>
-          <t>designed</t>
+          <t>accessible</t>
         </is>
       </c>
       <c r="RK1" s="1" t="inlineStr">
         <is>
-          <t>14.2</t>
+          <t>time</t>
         </is>
       </c>
       <c r="RL1" s="1" t="inlineStr">
         <is>
+          <t>clarifying</t>
+        </is>
+      </c>
+      <c r="RM1" s="1" t="inlineStr">
+        <is>
+          <t>well-known</t>
+        </is>
+      </c>
+      <c r="RN1" s="1" t="inlineStr">
+        <is>
+          <t>whose</t>
+        </is>
+      </c>
+      <c r="RO1" s="1" t="inlineStr">
+        <is>
+          <t>scholars</t>
+        </is>
+      </c>
+      <c r="RP1" s="1" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="RQ1" s="1" t="inlineStr">
+        <is>
+          <t>specifically</t>
+        </is>
+      </c>
+      <c r="RR1" s="1" t="inlineStr">
+        <is>
+          <t>fields</t>
+        </is>
+      </c>
+      <c r="RS1" s="1" t="inlineStr">
+        <is>
+          <t>place</t>
+        </is>
+      </c>
+      <c r="RT1" s="1" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+      <c r="RU1" s="1" t="inlineStr">
+        <is>
+          <t>known</t>
+        </is>
+      </c>
+      <c r="RV1" s="1" t="inlineStr">
+        <is>
+          <t>popularity</t>
+        </is>
+      </c>
+      <c r="RW1" s="1" t="inlineStr">
+        <is>
+          <t>proper</t>
+        </is>
+      </c>
+      <c r="RX1" s="1" t="inlineStr">
+        <is>
+          <t>published</t>
+        </is>
+      </c>
+      <c r="RY1" s="1" t="inlineStr">
+        <is>
+          <t>pervasive</t>
+        </is>
+      </c>
+      <c r="RZ1" s="1" t="inlineStr">
+        <is>
+          <t>actual</t>
+        </is>
+      </c>
+      <c r="SA1" s="1" t="inlineStr">
+        <is>
+          <t>question</t>
+        </is>
+      </c>
+      <c r="SB1" s="1" t="inlineStr">
+        <is>
+          <t>interpreting</t>
+        </is>
+      </c>
+      <c r="SC1" s="1" t="inlineStr">
+        <is>
+          <t>procedural</t>
+        </is>
+      </c>
+      <c r="SD1" s="1" t="inlineStr">
+        <is>
+          <t>interested</t>
+        </is>
+      </c>
+      <c r="SE1" s="1" t="inlineStr">
+        <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="RM1" s="1" t="inlineStr">
+      <c r="SF1" s="1" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="SG1" s="1" t="inlineStr">
+        <is>
+          <t>misunderstandings</t>
+        </is>
+      </c>
+      <c r="SH1" s="1" t="inlineStr">
+        <is>
+          <t>dependent</t>
+        </is>
+      </c>
+      <c r="SI1" s="1" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="SJ1" s="1" t="inlineStr">
+        <is>
+          <t>rather</t>
+        </is>
+      </c>
+      <c r="SK1" s="1" t="inlineStr">
         <is>
           <t>reasons</t>
         </is>
       </c>
-      <c r="RN1" s="1" t="inlineStr">
+      <c r="SL1" s="1" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="SM1" s="1" t="inlineStr">
+        <is>
+          <t>employed</t>
+        </is>
+      </c>
+      <c r="SN1" s="1" t="inlineStr">
+        <is>
+          <t>meaning</t>
+        </is>
+      </c>
+      <c r="SO1" s="1" t="inlineStr">
+        <is>
+          <t>purpose</t>
+        </is>
+      </c>
+      <c r="SP1" s="1" t="inlineStr">
+        <is>
+          <t>researcher</t>
+        </is>
+      </c>
+      <c r="SQ1" s="1" t="inlineStr">
+        <is>
+          <t>making</t>
+        </is>
+      </c>
+      <c r="SR1" s="1" t="inlineStr">
+        <is>
+          <t>robust</t>
+        </is>
+      </c>
+      <c r="SS1" s="1" t="inlineStr">
+        <is>
+          <t>said</t>
+        </is>
+      </c>
+      <c r="ST1" s="1" t="inlineStr">
+        <is>
+          <t>sem</t>
+        </is>
+      </c>
+      <c r="SU1" s="1" t="inlineStr">
+        <is>
+          <t>match</t>
+        </is>
+      </c>
+      <c r="SV1" s="1" t="inlineStr">
+        <is>
+          <t>journals</t>
+        </is>
+      </c>
+      <c r="SW1" s="1" t="inlineStr">
         <is>
           <t>aims</t>
         </is>
       </c>
-      <c r="RO1" s="1" t="inlineStr">
-        <is>
-          <t>heuristic</t>
-        </is>
-      </c>
-      <c r="RP1" s="1" t="inlineStr">
-        <is>
-          <t>better</t>
-        </is>
-      </c>
-      <c r="RQ1" s="1" t="inlineStr">
-        <is>
-          <t>introducing</t>
-        </is>
-      </c>
-      <c r="RR1" s="1" t="inlineStr">
-        <is>
-          <t>accordingly</t>
-        </is>
-      </c>
-      <c r="RS1" s="1" t="inlineStr">
-        <is>
-          <t>pervasive</t>
-        </is>
-      </c>
-      <c r="RT1" s="1" t="inlineStr">
-        <is>
-          <t>researcher</t>
-        </is>
-      </c>
-      <c r="RU1" s="1" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="RV1" s="1" t="inlineStr">
-        <is>
-          <t>robust</t>
-        </is>
-      </c>
-      <c r="RW1" s="1" t="inlineStr">
-        <is>
-          <t>fields</t>
-        </is>
-      </c>
-      <c r="RX1" s="1" t="inlineStr">
-        <is>
-          <t>said</t>
-        </is>
-      </c>
-      <c r="RY1" s="1" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="RZ1" s="1" t="inlineStr">
-        <is>
-          <t>conceptual</t>
-        </is>
-      </c>
-      <c r="SA1" s="1" t="inlineStr">
-        <is>
-          <t>sem</t>
-        </is>
-      </c>
-      <c r="SB1" s="1" t="inlineStr">
-        <is>
-          <t>specifically</t>
-        </is>
-      </c>
-      <c r="SC1" s="1" t="inlineStr">
-        <is>
-          <t>strategies</t>
-        </is>
-      </c>
-      <c r="SD1" s="1" t="inlineStr">
-        <is>
-          <t>actual</t>
-        </is>
-      </c>
-      <c r="SE1" s="1" t="inlineStr">
-        <is>
-          <t>journals</t>
-        </is>
-      </c>
-      <c r="SF1" s="1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="SG1" s="1" t="inlineStr">
-        <is>
-          <t>making</t>
-        </is>
-      </c>
-      <c r="SH1" s="1" t="inlineStr">
-        <is>
-          <t>well-known</t>
-        </is>
-      </c>
-      <c r="SI1" s="1" t="inlineStr">
-        <is>
-          <t>whose</t>
-        </is>
-      </c>
-      <c r="SJ1" s="1" t="inlineStr">
-        <is>
-          <t>accessible</t>
-        </is>
-      </c>
-      <c r="SK1" s="1" t="inlineStr">
-        <is>
-          <t>meaning</t>
-        </is>
-      </c>
-      <c r="SL1" s="1" t="inlineStr">
-        <is>
-          <t>method</t>
-        </is>
-      </c>
-      <c r="SM1" s="1" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="SN1" s="1" t="inlineStr">
-        <is>
-          <t>place</t>
-        </is>
-      </c>
-      <c r="SO1" s="1" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="SP1" s="1" t="inlineStr">
-        <is>
-          <t>has</t>
-        </is>
-      </c>
-      <c r="SQ1" s="1" t="inlineStr">
-        <is>
-          <t>syntax</t>
-        </is>
-      </c>
-      <c r="SR1" s="1" t="inlineStr">
-        <is>
-          <t>interested</t>
-        </is>
-      </c>
-      <c r="SS1" s="1" t="inlineStr">
-        <is>
-          <t>spss</t>
-        </is>
-      </c>
-      <c r="ST1" s="1" t="inlineStr">
-        <is>
-          <t>factorial</t>
-        </is>
-      </c>
-      <c r="SU1" s="1" t="inlineStr">
-        <is>
-          <t>interpreting</t>
-        </is>
-      </c>
-      <c r="SV1" s="1" t="inlineStr">
-        <is>
-          <t>just</t>
-        </is>
-      </c>
-      <c r="SW1" s="1" t="inlineStr">
-        <is>
-          <t>known</t>
-        </is>
-      </c>
       <c r="SX1" s="1" t="inlineStr">
         <is>
-          <t>alternatives</t>
+          <t>wrong</t>
         </is>
       </c>
       <c r="SY1" s="1" t="inlineStr">
         <is>
-          <t>purpose</t>
+          <t>suggestions</t>
         </is>
       </c>
       <c r="SZ1" s="1" t="inlineStr">
         <is>
-          <t>limited</t>
+          <t>less</t>
         </is>
       </c>
       <c r="TA1" s="1" t="inlineStr">
         <is>
-          <t>dependent</t>
+          <t>cross-sectional</t>
         </is>
       </c>
       <c r="TB1" s="1" t="inlineStr">
         <is>
-          <t>misunderstandings</t>
+          <t>insights</t>
         </is>
       </c>
       <c r="TC1" s="1" t="inlineStr">
         <is>
-          <t>match</t>
+          <t>contributing</t>
         </is>
       </c>
       <c r="TD1" s="1" t="inlineStr">
         <is>
-          <t>technique</t>
+          <t>crucial</t>
         </is>
       </c>
       <c r="TE1" s="1" t="inlineStr">
         <is>
-          <t>rather</t>
+          <t>realistic</t>
         </is>
       </c>
       <c r="TF1" s="1" t="inlineStr">
         <is>
-          <t>focus</t>
+          <t>due</t>
         </is>
       </c>
       <c r="TG1" s="1" t="inlineStr">
         <is>
-          <t>clarifying</t>
+          <t>economy</t>
         </is>
       </c>
       <c r="TH1" s="1" t="inlineStr">
         <is>
-          <t>procedural</t>
+          <t>encounter</t>
         </is>
       </c>
       <c r="TI1" s="1" t="inlineStr">
         <is>
-          <t>passed</t>
+          <t>environment</t>
         </is>
       </c>
       <c r="TJ1" s="1" t="inlineStr">
         <is>
-          <t>popularity</t>
+          <t>environments</t>
         </is>
       </c>
       <c r="TK1" s="1" t="inlineStr">
         <is>
-          <t>consult</t>
+          <t>essential</t>
         </is>
       </c>
       <c r="TL1" s="1" t="inlineStr">
         <is>
-          <t>proper</t>
+          <t>external</t>
         </is>
       </c>
       <c r="TM1" s="1" t="inlineStr">
         <is>
-          <t>published</t>
+          <t>replicates</t>
         </is>
       </c>
       <c r="TN1" s="1" t="inlineStr">
         <is>
-          <t>running</t>
+          <t>facilitating</t>
         </is>
       </c>
       <c r="TO1" s="1" t="inlineStr">
         <is>
-          <t>employed</t>
+          <t>failure</t>
         </is>
       </c>
       <c r="TP1" s="1" t="inlineStr">
         <is>
-          <t>scholars</t>
+          <t>forces</t>
         </is>
       </c>
       <c r="TQ1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>graduates</t>
         </is>
       </c>
       <c r="TR1" s="1" t="inlineStr">
         <is>
-          <t>complicated</t>
+          <t>scored</t>
         </is>
       </c>
       <c r="TS1" s="1" t="inlineStr">
         <is>
-          <t>wrong</t>
+          <t>impeding</t>
         </is>
       </c>
       <c r="TT1" s="1" t="inlineStr">
         <is>
-          <t>less</t>
+          <t>consequently</t>
         </is>
       </c>
       <c r="TU1" s="1" t="inlineStr">
         <is>
-          <t>most</t>
+          <t>conceived</t>
         </is>
       </c>
       <c r="TV1" s="1" t="inlineStr">
         <is>
-          <t>suggestions</t>
+          <t>challenges</t>
         </is>
       </c>
       <c r="TW1" s="1" t="inlineStr">
         <is>
+          <t>historic</t>
+        </is>
+      </c>
+      <c r="TX1" s="1" t="inlineStr">
+        <is>
+          <t>extensions</t>
+        </is>
+      </c>
+      <c r="TY1" s="1" t="inlineStr">
+        <is>
+          <t>fits</t>
+        </is>
+      </c>
+      <c r="TZ1" s="1" t="inlineStr">
+        <is>
+          <t>document</t>
+        </is>
+      </c>
+      <c r="UA1" s="1" t="inlineStr">
+        <is>
+          <t>evaluation</t>
+        </is>
+      </c>
+      <c r="UB1" s="1" t="inlineStr">
+        <is>
+          <t>galton</t>
+        </is>
+      </c>
+      <c r="UC1" s="1" t="inlineStr">
+        <is>
+          <t>expectations</t>
+        </is>
+      </c>
+      <c r="UD1" s="1" t="inlineStr">
+        <is>
+          <t>extends</t>
+        </is>
+      </c>
+      <c r="UE1" s="1" t="inlineStr">
+        <is>
+          <t>giving</t>
+        </is>
+      </c>
+      <c r="UF1" s="1" t="inlineStr">
+        <is>
+          <t>individuals</t>
+        </is>
+      </c>
+      <c r="UG1" s="1" t="inlineStr">
+        <is>
+          <t>aimed</t>
+        </is>
+      </c>
+      <c r="UH1" s="1" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="UI1" s="1" t="inlineStr">
+        <is>
+          <t>investigative</t>
+        </is>
+      </c>
+      <c r="UJ1" s="1" t="inlineStr">
+        <is>
+          <t>lessons</t>
+        </is>
+      </c>
+      <c r="UK1" s="1" t="inlineStr">
+        <is>
+          <t>propensity</t>
+        </is>
+      </c>
+      <c r="UL1" s="1" t="inlineStr">
+        <is>
+          <t>historiometric</t>
+        </is>
+      </c>
+      <c r="UM1" s="1" t="inlineStr">
+        <is>
+          <t>hundred</t>
+        </is>
+      </c>
+      <c r="UN1" s="1" t="inlineStr">
+        <is>
+          <t>adjust</t>
+        </is>
+      </c>
+      <c r="UO1" s="1" t="inlineStr">
+        <is>
+          <t>rank-biserialr</t>
+        </is>
+      </c>
+      <c r="UP1" s="1" t="inlineStr">
+        <is>
+          <t>influence</t>
+        </is>
+      </c>
+      <c r="UQ1" s="1" t="inlineStr">
+        <is>
+          <t>interesting</t>
+        </is>
+      </c>
+      <c r="UR1" s="1" t="inlineStr">
+        <is>
+          <t>extending</t>
+        </is>
+      </c>
+      <c r="US1" s="1" t="inlineStr">
+        <is>
+          <t>internal</t>
+        </is>
+      </c>
+      <c r="UT1" s="1" t="inlineStr">
+        <is>
+          <t>successful</t>
+        </is>
+      </c>
+      <c r="UU1" s="1" t="inlineStr">
+        <is>
+          <t>talents</t>
+        </is>
+      </c>
+      <c r="UV1" s="1" t="inlineStr">
+        <is>
+          <t>leaders</t>
+        </is>
+      </c>
+      <c r="UW1" s="1" t="inlineStr">
+        <is>
+          <t>understanding</t>
+        </is>
+      </c>
+      <c r="UX1" s="1" t="inlineStr">
+        <is>
+          <t>numerous</t>
+        </is>
+      </c>
+      <c r="UY1" s="1" t="inlineStr">
+        <is>
+          <t>via</t>
+        </is>
+      </c>
+      <c r="UZ1" s="1" t="inlineStr">
+        <is>
+          <t>young</t>
+        </is>
+      </c>
+      <c r="VA1" s="1" t="inlineStr">
+        <is>
+          <t>replications</t>
+        </is>
+      </c>
+      <c r="VB1" s="1" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="VC1" s="1" t="inlineStr">
+        <is>
+          <t>report</t>
+        </is>
+      </c>
+      <c r="VD1" s="1" t="inlineStr">
+        <is>
+          <t>ways</t>
+        </is>
+      </c>
+      <c r="VE1" s="1" t="inlineStr">
+        <is>
+          <t>retrospective</t>
+        </is>
+      </c>
+      <c r="VF1" s="1" t="inlineStr">
+        <is>
+          <t>turns</t>
+        </is>
+      </c>
+      <c r="VG1" s="1" t="inlineStr">
+        <is>
+          <t>treating</t>
+        </is>
+      </c>
+      <c r="VH1" s="1" t="inlineStr">
+        <is>
+          <t>thus</t>
+        </is>
+      </c>
+      <c r="VI1" s="1" t="inlineStr">
+        <is>
+          <t>thousand</t>
+        </is>
+      </c>
+      <c r="VJ1" s="1" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="VK1" s="1" t="inlineStr">
+        <is>
+          <t>single-authored</t>
+        </is>
+      </c>
+      <c r="VL1" s="1" t="inlineStr">
+        <is>
+          <t>subset</t>
+        </is>
+      </c>
+      <c r="VM1" s="1" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="VN1" s="1" t="inlineStr">
+        <is>
+          <t>iqs</t>
+        </is>
+      </c>
+      <c r="VO1" s="1" t="inlineStr">
+        <is>
+          <t>society</t>
+        </is>
+      </c>
+      <c r="VP1" s="1" t="inlineStr">
+        <is>
+          <t>offers</t>
+        </is>
+      </c>
+      <c r="VQ1" s="1" t="inlineStr">
+        <is>
+          <t>similarities</t>
+        </is>
+      </c>
+      <c r="VR1" s="1" t="inlineStr">
+        <is>
+          <t>invaluable</t>
+        </is>
+      </c>
+      <c r="VS1" s="1" t="inlineStr">
+        <is>
+          <t>issues</t>
+        </is>
+      </c>
+      <c r="VT1" s="1" t="inlineStr">
+        <is>
           <t>key</t>
         </is>
       </c>
-      <c r="TX1" s="1" t="inlineStr">
-        <is>
-          <t>some</t>
-        </is>
-      </c>
-      <c r="TY1" s="1" t="inlineStr">
-        <is>
-          <t>thousand</t>
-        </is>
-      </c>
-      <c r="TZ1" s="1" t="inlineStr">
-        <is>
-          <t>similarities</t>
-        </is>
-      </c>
-      <c r="UA1" s="1" t="inlineStr">
+      <c r="VU1" s="1" t="inlineStr">
         <is>
           <t>smaller</t>
         </is>
       </c>
-      <c r="UB1" s="1" t="inlineStr">
-        <is>
-          <t>thus</t>
-        </is>
-      </c>
-      <c r="UC1" s="1" t="inlineStr">
-        <is>
-          <t>treating</t>
-        </is>
-      </c>
-      <c r="UD1" s="1" t="inlineStr">
-        <is>
-          <t>adjust</t>
-        </is>
-      </c>
-      <c r="UE1" s="1" t="inlineStr">
-        <is>
-          <t>aimed</t>
-        </is>
-      </c>
-      <c r="UF1" s="1" t="inlineStr">
-        <is>
-          <t>replicates</t>
-        </is>
-      </c>
-      <c r="UG1" s="1" t="inlineStr">
-        <is>
-          <t>challenges</t>
-        </is>
-      </c>
-      <c r="UH1" s="1" t="inlineStr">
-        <is>
-          <t>conceived</t>
-        </is>
-      </c>
-      <c r="UI1" s="1" t="inlineStr">
-        <is>
-          <t>consequently</t>
-        </is>
-      </c>
-      <c r="UJ1" s="1" t="inlineStr">
-        <is>
-          <t>contributing</t>
-        </is>
-      </c>
-      <c r="UK1" s="1" t="inlineStr">
-        <is>
-          <t>crucial</t>
-        </is>
-      </c>
-      <c r="UL1" s="1" t="inlineStr">
+      <c r="VV1" s="1" t="inlineStr">
+        <is>
+          <t>lenses</t>
+        </is>
+      </c>
+      <c r="VW1" s="1" t="inlineStr">
+        <is>
+          <t>might</t>
+        </is>
+      </c>
+      <c r="VX1" s="1" t="inlineStr">
         <is>
           <t>stereotypes</t>
         </is>
       </c>
-      <c r="UM1" s="1" t="inlineStr">
-        <is>
-          <t>due</t>
-        </is>
-      </c>
-      <c r="UN1" s="1" t="inlineStr">
-        <is>
-          <t>scored</t>
-        </is>
-      </c>
-      <c r="UO1" s="1" t="inlineStr">
-        <is>
-          <t>realistic</t>
-        </is>
-      </c>
-      <c r="UP1" s="1" t="inlineStr">
-        <is>
-          <t>then</t>
-        </is>
-      </c>
-      <c r="UQ1" s="1" t="inlineStr">
-        <is>
-          <t>single</t>
-        </is>
-      </c>
-      <c r="UR1" s="1" t="inlineStr">
-        <is>
-          <t>expectations</t>
-        </is>
-      </c>
-      <c r="US1" s="1" t="inlineStr">
-        <is>
-          <t>numerous</t>
-        </is>
-      </c>
-      <c r="UT1" s="1" t="inlineStr">
-        <is>
-          <t>replications</t>
-        </is>
-      </c>
-      <c r="UU1" s="1" t="inlineStr">
-        <is>
-          <t>report</t>
-        </is>
-      </c>
-      <c r="UV1" s="1" t="inlineStr">
-        <is>
-          <t>retrospective</t>
-        </is>
-      </c>
-      <c r="UW1" s="1" t="inlineStr">
-        <is>
-          <t>individuals</t>
-        </is>
-      </c>
-      <c r="UX1" s="1" t="inlineStr">
-        <is>
-          <t>instruction</t>
-        </is>
-      </c>
-      <c r="UY1" s="1" t="inlineStr">
-        <is>
-          <t>investigative</t>
-        </is>
-      </c>
-      <c r="UZ1" s="1" t="inlineStr">
-        <is>
-          <t>encounter</t>
-        </is>
-      </c>
-      <c r="VA1" s="1" t="inlineStr">
-        <is>
-          <t>single-authored</t>
-        </is>
-      </c>
-      <c r="VB1" s="1" t="inlineStr">
+      <c r="VY1" s="1" t="inlineStr">
+        <is>
+          <t>systematically</t>
+        </is>
+      </c>
+      <c r="VZ1" s="1" t="inlineStr">
+        <is>
+          <t>settings</t>
+        </is>
+      </c>
+      <c r="WA1" s="1" t="inlineStr">
+        <is>
+          <t>performance-based</t>
+        </is>
+      </c>
+      <c r="WB1" s="1" t="inlineStr">
+        <is>
+          <t>played</t>
+        </is>
+      </c>
+      <c r="WC1" s="1" t="inlineStr">
+        <is>
+          <t>predominantly</t>
+        </is>
+      </c>
+      <c r="WD1" s="1" t="inlineStr">
+        <is>
+          <t>preferred</t>
+        </is>
+      </c>
+      <c r="WE1" s="1" t="inlineStr">
+        <is>
+          <t>unselected</t>
+        </is>
+      </c>
+      <c r="WF1" s="1" t="inlineStr">
+        <is>
+          <t>schools</t>
+        </is>
+      </c>
+      <c r="WG1" s="1" t="inlineStr">
+        <is>
+          <t>indicating</t>
+        </is>
+      </c>
+      <c r="WH1" s="1" t="inlineStr">
+        <is>
+          <t>sense</t>
+        </is>
+      </c>
+      <c r="WI1" s="1" t="inlineStr">
+        <is>
+          <t>contradict</t>
+        </is>
+      </c>
+      <c r="WJ1" s="1" t="inlineStr">
         <is>
           <t>subsequent</t>
         </is>
       </c>
-      <c r="VC1" s="1" t="inlineStr">
-        <is>
-          <t>subset</t>
-        </is>
-      </c>
-      <c r="VD1" s="1" t="inlineStr">
-        <is>
-          <t>lessons</t>
-        </is>
-      </c>
-      <c r="VE1" s="1" t="inlineStr">
-        <is>
-          <t>propensity</t>
-        </is>
-      </c>
-      <c r="VF1" s="1" t="inlineStr">
-        <is>
-          <t>that</t>
-        </is>
-      </c>
-      <c r="VG1" s="1" t="inlineStr">
-        <is>
-          <t>rank-biserialr</t>
-        </is>
-      </c>
-      <c r="VH1" s="1" t="inlineStr">
-        <is>
-          <t>economy</t>
-        </is>
-      </c>
-      <c r="VI1" s="1" t="inlineStr">
-        <is>
-          <t>environment</t>
-        </is>
-      </c>
-      <c r="VJ1" s="1" t="inlineStr">
-        <is>
-          <t>iqs</t>
-        </is>
-      </c>
-      <c r="VK1" s="1" t="inlineStr">
-        <is>
-          <t>sense</t>
-        </is>
-      </c>
-      <c r="VL1" s="1" t="inlineStr">
-        <is>
-          <t>ways</t>
-        </is>
-      </c>
-      <c r="VM1" s="1" t="inlineStr">
-        <is>
-          <t>performance-based</t>
-        </is>
-      </c>
-      <c r="VN1" s="1" t="inlineStr">
-        <is>
-          <t>played</t>
-        </is>
-      </c>
-      <c r="VO1" s="1" t="inlineStr">
-        <is>
-          <t>predominantly</t>
-        </is>
-      </c>
-      <c r="VP1" s="1" t="inlineStr">
-        <is>
-          <t>preferred</t>
-        </is>
-      </c>
-      <c r="VQ1" s="1" t="inlineStr">
-        <is>
-          <t>schools</t>
-        </is>
-      </c>
-      <c r="VR1" s="1" t="inlineStr">
-        <is>
-          <t>work</t>
-        </is>
-      </c>
-      <c r="VS1" s="1" t="inlineStr">
-        <is>
-          <t>settings</t>
-        </is>
-      </c>
-      <c r="VT1" s="1" t="inlineStr">
-        <is>
-          <t>environments</t>
-        </is>
-      </c>
-      <c r="VU1" s="1" t="inlineStr">
-        <is>
-          <t>society</t>
-        </is>
-      </c>
-      <c r="VV1" s="1" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="VW1" s="1" t="inlineStr">
-        <is>
-          <t>successful</t>
-        </is>
-      </c>
-      <c r="VX1" s="1" t="inlineStr">
-        <is>
-          <t>talents</t>
-        </is>
-      </c>
-      <c r="VY1" s="1" t="inlineStr">
-        <is>
-          <t>understanding</t>
-        </is>
-      </c>
-      <c r="VZ1" s="1" t="inlineStr">
-        <is>
-          <t>via</t>
-        </is>
-      </c>
-      <c r="WA1" s="1" t="inlineStr">
-        <is>
-          <t>young</t>
-        </is>
-      </c>
-      <c r="WB1" s="1" t="inlineStr">
-        <is>
-          <t>offers</t>
-        </is>
-      </c>
-      <c r="WC1" s="1" t="inlineStr">
-        <is>
-          <t>turns</t>
-        </is>
-      </c>
-      <c r="WD1" s="1" t="inlineStr">
-        <is>
-          <t>might</t>
-        </is>
-      </c>
-      <c r="WE1" s="1" t="inlineStr">
-        <is>
-          <t>lenses</t>
-        </is>
-      </c>
-      <c r="WF1" s="1" t="inlineStr">
-        <is>
-          <t>essential</t>
-        </is>
-      </c>
-      <c r="WG1" s="1" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="WH1" s="1" t="inlineStr">
-        <is>
-          <t>systematically</t>
-        </is>
-      </c>
-      <c r="WI1" s="1" t="inlineStr">
-        <is>
-          <t>facilitating</t>
-        </is>
-      </c>
-      <c r="WJ1" s="1" t="inlineStr">
-        <is>
-          <t>failure</t>
-        </is>
-      </c>
       <c r="WK1" s="1" t="inlineStr">
         <is>
-          <t>forces</t>
+          <t>comparing</t>
         </is>
       </c>
       <c r="WL1" s="1" t="inlineStr">
         <is>
-          <t>graduates</t>
+          <t>archival</t>
         </is>
       </c>
       <c r="WM1" s="1" t="inlineStr">
         <is>
-          <t>unselected</t>
+          <t>67</t>
         </is>
       </c>
       <c r="WN1" s="1" t="inlineStr">
         <is>
-          <t>impeding</t>
+          <t>301</t>
         </is>
       </c>
       <c r="WO1" s="1" t="inlineStr">
         <is>
-          <t>influence</t>
+          <t>21st</t>
         </is>
       </c>
       <c r="WP1" s="1" t="inlineStr">
         <is>
-          <t>insights</t>
+          <t>100</t>
         </is>
       </c>
       <c r="WQ1" s="1" t="inlineStr">
         <is>
-          <t>interesting</t>
+          <t>3,865</t>
         </is>
       </c>
       <c r="WR1" s="1" t="inlineStr">
         <is>
-          <t>internal</t>
+          <t>across</t>
         </is>
       </c>
       <c r="WS1" s="1" t="inlineStr">
         <is>
-          <t>invaluable</t>
+          <t>benefits</t>
         </is>
       </c>
       <c r="WT1" s="1" t="inlineStr">
         <is>
-          <t>issues</t>
+          <t>classified</t>
         </is>
       </c>
       <c r="WU1" s="1" t="inlineStr">
         <is>
-          <t>leaders</t>
+          <t>consistent</t>
         </is>
       </c>
       <c r="WV1" s="1" t="inlineStr">
         <is>
-          <t>extends</t>
+          <t>de-emphasis</t>
         </is>
       </c>
       <c r="WW1" s="1" t="inlineStr">
         <is>
-          <t>indicating</t>
+          <t>demonstrated</t>
         </is>
       </c>
       <c r="WX1" s="1" t="inlineStr">
         <is>
+          <t>disabilities</t>
+        </is>
+      </c>
+      <c r="WY1" s="1" t="inlineStr">
+        <is>
+          <t>dual</t>
+        </is>
+      </c>
+      <c r="WZ1" s="1" t="inlineStr">
+        <is>
+          <t>empirically-based</t>
+        </is>
+      </c>
+      <c r="XA1" s="1" t="inlineStr">
+        <is>
+          <t>greater</t>
+        </is>
+      </c>
+      <c r="XB1" s="1" t="inlineStr">
+        <is>
+          <t>individualized</t>
+        </is>
+      </c>
+      <c r="XC1" s="1" t="inlineStr">
+        <is>
+          <t>aspirations</t>
+        </is>
+      </c>
+      <c r="XD1" s="1" t="inlineStr">
+        <is>
+          <t>intraindividual</t>
+        </is>
+      </c>
+      <c r="XE1" s="1" t="inlineStr">
+        <is>
+          <t>literature</t>
+        </is>
+      </c>
+      <c r="XF1" s="1" t="inlineStr">
+        <is>
+          <t>past</t>
+        </is>
+      </c>
+      <c r="XG1" s="1" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
+      <c r="XH1" s="1" t="inlineStr">
+        <is>
+          <t>recommendations</t>
+        </is>
+      </c>
+      <c r="XI1" s="1" t="inlineStr">
+        <is>
+          <t>school-age</t>
+        </is>
+      </c>
+      <c r="XJ1" s="1" t="inlineStr">
+        <is>
+          <t>speeded</t>
+        </is>
+      </c>
+      <c r="XK1" s="1" t="inlineStr">
+        <is>
+          <t>standardization</t>
+        </is>
+      </c>
+      <c r="XL1" s="1" t="inlineStr">
+        <is>
+          <t>systems</t>
+        </is>
+      </c>
+      <c r="XM1" s="1" t="inlineStr">
+        <is>
+          <t>tasks</t>
+        </is>
+      </c>
+      <c r="XN1" s="1" t="inlineStr">
+        <is>
+          <t>woodcock-johnson</t>
+        </is>
+      </c>
+      <c r="XO1" s="1" t="inlineStr">
+        <is>
+          <t>writing</t>
+        </is>
+      </c>
+      <c r="XP1" s="1" t="inlineStr">
+        <is>
+          <t>aftermath</t>
+        </is>
+      </c>
+      <c r="XQ1" s="1" t="inlineStr">
+        <is>
+          <t>informs</t>
+        </is>
+      </c>
+      <c r="XR1" s="1" t="inlineStr">
+        <is>
+          <t>background</t>
+        </is>
+      </c>
+      <c r="XS1" s="1" t="inlineStr">
+        <is>
+          <t>contributions</t>
+        </is>
+      </c>
+      <c r="XT1" s="1" t="inlineStr">
+        <is>
+          <t>biographical</t>
+        </is>
+      </c>
+      <c r="XU1" s="1" t="inlineStr">
+        <is>
+          <t>estimate</t>
+        </is>
+      </c>
+      <c r="XV1" s="1" t="inlineStr">
+        <is>
+          <t>eminent</t>
+        </is>
+      </c>
+      <c r="XW1" s="1" t="inlineStr">
+        <is>
+          <t>.71</t>
+        </is>
+      </c>
+      <c r="XX1" s="1" t="inlineStr">
+        <is>
+          <t>emergence</t>
+        </is>
+      </c>
+      <c r="XY1" s="1" t="inlineStr">
+        <is>
+          <t>.66/.81</t>
+        </is>
+      </c>
+      <c r="XZ1" s="1" t="inlineStr">
+        <is>
+          <t>distinctive</t>
+        </is>
+      </c>
+      <c r="YA1" s="1" t="inlineStr">
+        <is>
+          <t>dissertation</t>
+        </is>
+      </c>
+      <c r="YB1" s="1" t="inlineStr">
+        <is>
+          <t>discusses</t>
+        </is>
+      </c>
+      <c r="YC1" s="1" t="inlineStr">
+        <is>
+          <t>creators</t>
+        </is>
+      </c>
+      <c r="YD1" s="1" t="inlineStr">
+        <is>
+          <t>doctoral</t>
+        </is>
+      </c>
+      <c r="YE1" s="1" t="inlineStr">
+        <is>
+          <t>century</t>
+        </is>
+      </c>
+      <c r="YF1" s="1" t="inlineStr">
+        <is>
+          <t>closes</t>
+        </is>
+      </c>
+      <c r="YG1" s="1" t="inlineStr">
+        <is>
+          <t>-.52</t>
+        </is>
+      </c>
+      <c r="YH1" s="1" t="inlineStr">
+        <is>
+          <t>.42</t>
+        </is>
+      </c>
+      <c r="YI1" s="1" t="inlineStr">
+        <is>
+          <t>.65</t>
+        </is>
+      </c>
+      <c r="YJ1" s="1" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="YK1" s="1" t="inlineStr">
+        <is>
+          <t>.62</t>
+        </is>
+      </c>
+      <c r="YL1" s="1" t="inlineStr">
+        <is>
+          <t>comes</t>
+        </is>
+      </c>
+      <c r="YM1" s="1" t="inlineStr">
+        <is>
+          <t>comparable</t>
+        </is>
+      </c>
+      <c r="YN1" s="1" t="inlineStr">
+        <is>
           <t>-.37</t>
         </is>
       </c>
-      <c r="WY1" s="1" t="inlineStr">
-        <is>
-          <t>.65</t>
-        </is>
-      </c>
-      <c r="WZ1" s="1" t="inlineStr">
-        <is>
-          <t>.62</t>
-        </is>
-      </c>
-      <c r="XA1" s="1" t="inlineStr">
-        <is>
-          <t>.42</t>
-        </is>
-      </c>
-      <c r="XB1" s="1" t="inlineStr">
-        <is>
-          <t>fits</t>
-        </is>
-      </c>
-      <c r="XC1" s="1" t="inlineStr">
-        <is>
-          <t>extensions</t>
-        </is>
-      </c>
-      <c r="XD1" s="1" t="inlineStr">
-        <is>
-          <t>extending</t>
-        </is>
-      </c>
-      <c r="XE1" s="1" t="inlineStr">
-        <is>
-          <t>-.52</t>
-        </is>
-      </c>
-      <c r="XF1" s="1" t="inlineStr">
-        <is>
-          <t>eminent</t>
-        </is>
-      </c>
-      <c r="XG1" s="1" t="inlineStr">
-        <is>
-          <t>emergence</t>
-        </is>
-      </c>
-      <c r="XH1" s="1" t="inlineStr">
-        <is>
-          <t>doctoral</t>
-        </is>
-      </c>
-      <c r="XI1" s="1" t="inlineStr">
-        <is>
-          <t>distinctive</t>
-        </is>
-      </c>
-      <c r="XJ1" s="1" t="inlineStr">
-        <is>
-          <t>dissertation</t>
-        </is>
-      </c>
-      <c r="XK1" s="1" t="inlineStr">
-        <is>
-          <t>discusses</t>
-        </is>
-      </c>
-      <c r="XL1" s="1" t="inlineStr">
-        <is>
-          <t>creators</t>
-        </is>
-      </c>
-      <c r="XM1" s="1" t="inlineStr">
-        <is>
-          <t>contributions</t>
-        </is>
-      </c>
-      <c r="XN1" s="1" t="inlineStr">
-        <is>
-          <t>.66/.81</t>
-        </is>
-      </c>
-      <c r="XO1" s="1" t="inlineStr">
-        <is>
-          <t>comparable</t>
-        </is>
-      </c>
-      <c r="XP1" s="1" t="inlineStr">
-        <is>
-          <t>comes</t>
-        </is>
-      </c>
-      <c r="XQ1" s="1" t="inlineStr">
-        <is>
-          <t>closes</t>
-        </is>
-      </c>
-      <c r="XR1" s="1" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="XS1" s="1" t="inlineStr">
-        <is>
-          <t>century</t>
-        </is>
-      </c>
-      <c r="XT1" s="1" t="inlineStr">
-        <is>
-          <t>biographical</t>
-        </is>
-      </c>
-      <c r="XU1" s="1" t="inlineStr">
-        <is>
-          <t>background</t>
-        </is>
-      </c>
-      <c r="XV1" s="1" t="inlineStr">
-        <is>
-          <t>archival</t>
-        </is>
-      </c>
-      <c r="XW1" s="1" t="inlineStr">
-        <is>
-          <t>aftermath</t>
-        </is>
-      </c>
-      <c r="XX1" s="1" t="inlineStr">
-        <is>
-          <t>after</t>
-        </is>
-      </c>
-      <c r="XY1" s="1" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="XZ1" s="1" t="inlineStr">
-        <is>
-          <t>301</t>
-        </is>
-      </c>
-      <c r="YA1" s="1" t="inlineStr">
-        <is>
-          <t>21st</t>
-        </is>
-      </c>
-      <c r="YB1" s="1" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="YC1" s="1" t="inlineStr">
-        <is>
-          <t>galton</t>
-        </is>
-      </c>
-      <c r="YD1" s="1" t="inlineStr">
-        <is>
-          <t>estimate</t>
-        </is>
-      </c>
-      <c r="YE1" s="1" t="inlineStr">
-        <is>
-          <t>historiometric</t>
-        </is>
-      </c>
-      <c r="YF1" s="1" t="inlineStr">
-        <is>
-          <t>cross-sectional</t>
-        </is>
-      </c>
-      <c r="YG1" s="1" t="inlineStr">
-        <is>
-          <t>comparing</t>
-        </is>
-      </c>
-      <c r="YH1" s="1" t="inlineStr">
-        <is>
-          <t>between</t>
-        </is>
-      </c>
-      <c r="YI1" s="1" t="inlineStr">
-        <is>
-          <t>historic</t>
-        </is>
-      </c>
-      <c r="YJ1" s="1" t="inlineStr">
-        <is>
-          <t>giving</t>
-        </is>
-      </c>
-      <c r="YK1" s="1" t="inlineStr">
-        <is>
-          <t>aspirations</t>
-        </is>
-      </c>
-      <c r="YL1" s="1" t="inlineStr">
-        <is>
-          <t>contradict</t>
-        </is>
-      </c>
-      <c r="YM1" s="1" t="inlineStr">
-        <is>
-          <t>document</t>
-        </is>
-      </c>
-      <c r="YN1" s="1" t="inlineStr">
-        <is>
-          <t>evaluation</t>
-        </is>
-      </c>
       <c r="YO1" s="1" t="inlineStr">
         <is>
-          <t>hundred</t>
+          <t>evaluate</t>
         </is>
       </c>
       <c r="YP1" s="1" t="inlineStr">
         <is>
-          <t>.71</t>
+          <t>evoke</t>
         </is>
       </c>
       <c r="YQ1" s="1" t="inlineStr">
         <is>
+          <t>health</t>
+        </is>
+      </c>
+      <c r="YR1" s="1" t="inlineStr">
+        <is>
+          <t>following</t>
+        </is>
+      </c>
+      <c r="YS1" s="1" t="inlineStr">
+        <is>
+          <t>end-users</t>
+        </is>
+      </c>
+      <c r="YT1" s="1" t="inlineStr">
+        <is>
+          <t>planning</t>
+        </is>
+      </c>
+      <c r="YU1" s="1" t="inlineStr">
+        <is>
+          <t>quantitative</t>
+        </is>
+      </c>
+      <c r="YV1" s="1" t="inlineStr">
+        <is>
+          <t>freshmen</t>
+        </is>
+      </c>
+      <c r="YW1" s="1" t="inlineStr">
+        <is>
+          <t>school-related</t>
+        </is>
+      </c>
+      <c r="YX1" s="1" t="inlineStr">
+        <is>
+          <t>grounded</t>
+        </is>
+      </c>
+      <c r="YY1" s="1" t="inlineStr">
+        <is>
+          <t>tier</t>
+        </is>
+      </c>
+      <c r="YZ1" s="1" t="inlineStr">
+        <is>
+          <t>heightened</t>
+        </is>
+      </c>
+      <c r="ZA1" s="1" t="inlineStr">
+        <is>
+          <t>social-emotional</t>
+        </is>
+      </c>
+      <c r="ZB1" s="1" t="inlineStr">
+        <is>
+          <t>ib</t>
+        </is>
+      </c>
+      <c r="ZC1" s="1" t="inlineStr">
+        <is>
+          <t>sector</t>
+        </is>
+      </c>
+      <c r="ZD1" s="1" t="inlineStr">
+        <is>
+          <t>indicate</t>
+        </is>
+      </c>
+      <c r="ZE1" s="1" t="inlineStr">
+        <is>
+          <t>stressors</t>
+        </is>
+      </c>
+      <c r="ZF1" s="1" t="inlineStr">
+        <is>
+          <t>individual</t>
+        </is>
+      </c>
+      <c r="ZG1" s="1" t="inlineStr">
+        <is>
+          <t>developed</t>
+        </is>
+      </c>
+      <c r="ZH1" s="1" t="inlineStr">
+        <is>
+          <t>promoting</t>
+        </is>
+      </c>
+      <c r="ZI1" s="1" t="inlineStr">
+        <is>
+          <t>statistically</t>
+        </is>
+      </c>
+      <c r="ZJ1" s="1" t="inlineStr">
+        <is>
+          <t>directions</t>
+        </is>
+      </c>
+      <c r="ZK1" s="1" t="inlineStr">
+        <is>
+          <t>ap</t>
+        </is>
+      </c>
+      <c r="ZL1" s="1" t="inlineStr">
+        <is>
+          <t>describes</t>
+        </is>
+      </c>
+      <c r="ZM1" s="1" t="inlineStr">
+        <is>
+          <t>students-those</t>
+        </is>
+      </c>
+      <c r="ZN1" s="1" t="inlineStr">
+        <is>
           <t>placement</t>
         </is>
       </c>
-      <c r="YR1" s="1" t="inlineStr">
+      <c r="ZO1" s="1" t="inlineStr">
+        <is>
+          <t>multisource</t>
+        </is>
+      </c>
+      <c r="ZP1" s="1" t="inlineStr">
+        <is>
+          <t>multimethod</t>
+        </is>
+      </c>
+      <c r="ZQ1" s="1" t="inlineStr">
+        <is>
+          <t>meetings</t>
+        </is>
+      </c>
+      <c r="ZR1" s="1" t="inlineStr">
+        <is>
+          <t>meet</t>
+        </is>
+      </c>
+      <c r="ZS1" s="1" t="inlineStr">
+        <is>
+          <t>prior</t>
+        </is>
+      </c>
+      <c r="ZT1" s="1" t="inlineStr">
+        <is>
+          <t>frameworks</t>
+        </is>
+      </c>
+      <c r="ZU1" s="1" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="ZV1" s="1" t="inlineStr">
+        <is>
+          <t>9th-grade</t>
+        </is>
+      </c>
+      <c r="ZW1" s="1" t="inlineStr">
+        <is>
+          <t>acceptable</t>
+        </is>
+      </c>
+      <c r="ZX1" s="1" t="inlineStr">
+        <is>
+          <t>addressing</t>
+        </is>
+      </c>
+      <c r="ZY1" s="1" t="inlineStr">
+        <is>
+          <t>underscoring</t>
+        </is>
+      </c>
+      <c r="ZZ1" s="1" t="inlineStr">
+        <is>
+          <t>underlying</t>
+        </is>
+      </c>
+      <c r="AAA1" s="1" t="inlineStr">
+        <is>
+          <t>behavior</t>
+        </is>
+      </c>
+      <c r="AAB1" s="1" t="inlineStr">
+        <is>
+          <t>change</t>
+        </is>
+      </c>
+      <c r="AAC1" s="1" t="inlineStr">
+        <is>
+          <t>targeted</t>
+        </is>
+      </c>
+      <c r="AAD1" s="1" t="inlineStr">
+        <is>
+          <t>coach</t>
+        </is>
+      </c>
+      <c r="AAE1" s="1" t="inlineStr">
+        <is>
+          <t>coaches</t>
+        </is>
+      </c>
+      <c r="AAF1" s="1" t="inlineStr">
         <is>
           <t>completing</t>
         </is>
       </c>
-      <c r="YS1" s="1" t="inlineStr">
+      <c r="AAG1" s="1" t="inlineStr">
+        <is>
+          <t>hereinafter</t>
+        </is>
+      </c>
+      <c r="AAH1" s="1" t="inlineStr">
+        <is>
+          <t>inequality</t>
+        </is>
+      </c>
+      <c r="AAI1" s="1" t="inlineStr">
+        <is>
+          <t>plausible</t>
+        </is>
+      </c>
+      <c r="AAJ1" s="1" t="inlineStr">
+        <is>
+          <t>deriving</t>
+        </is>
+      </c>
+      <c r="AAK1" s="1" t="inlineStr">
+        <is>
+          <t>performed</t>
+        </is>
+      </c>
+      <c r="AAL1" s="1" t="inlineStr">
+        <is>
+          <t>frequently</t>
+        </is>
+      </c>
+      <c r="AAM1" s="1" t="inlineStr">
+        <is>
+          <t>explaining</t>
+        </is>
+      </c>
+      <c r="AAN1" s="1" t="inlineStr">
+        <is>
+          <t>existing</t>
+        </is>
+      </c>
+      <c r="AAO1" s="1" t="inlineStr">
+        <is>
+          <t>either</t>
+        </is>
+      </c>
+      <c r="AAP1" s="1" t="inlineStr">
+        <is>
+          <t>dimensions</t>
+        </is>
+      </c>
+      <c r="AAQ1" s="1" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="AAR1" s="1" t="inlineStr">
+        <is>
+          <t>years</t>
+        </is>
+      </c>
+      <c r="AAS1" s="1" t="inlineStr">
+        <is>
+          <t>conflicts</t>
+        </is>
+      </c>
+      <c r="AAT1" s="1" t="inlineStr">
+        <is>
+          <t>compulsory</t>
+        </is>
+      </c>
+      <c r="AAU1" s="1" t="inlineStr">
+        <is>
+          <t>classmates</t>
+        </is>
+      </c>
+      <c r="AAV1" s="1" t="inlineStr">
+        <is>
+          <t>case-control</t>
+        </is>
+      </c>
+      <c r="AAW1" s="1" t="inlineStr">
+        <is>
+          <t>bullying</t>
+        </is>
+      </c>
+      <c r="AAX1" s="1" t="inlineStr">
+        <is>
+          <t>aggressor</t>
+        </is>
+      </c>
+      <c r="AAY1" s="1" t="inlineStr">
+        <is>
+          <t>incidence</t>
+        </is>
+      </c>
+      <c r="AAZ1" s="1" t="inlineStr">
+        <is>
+          <t>post-</t>
+        </is>
+      </c>
+      <c r="ABA1" s="1" t="inlineStr">
+        <is>
+          <t>practices</t>
+        </is>
+      </c>
+      <c r="ABB1" s="1" t="inlineStr">
+        <is>
+          <t>intrapersonal</t>
+        </is>
+      </c>
+      <c r="ABC1" s="1" t="inlineStr">
+        <is>
+          <t>pre-</t>
+        </is>
+      </c>
+      <c r="ABD1" s="1" t="inlineStr">
+        <is>
+          <t>prescribed</t>
+        </is>
+      </c>
+      <c r="ABE1" s="1" t="inlineStr">
+        <is>
+          <t>nevertheless</t>
+        </is>
+      </c>
+      <c r="ABF1" s="1" t="inlineStr">
+        <is>
+          <t>quasi-experimental</t>
+        </is>
+      </c>
+      <c r="ABG1" s="1" t="inlineStr">
+        <is>
+          <t>outreach</t>
+        </is>
+      </c>
+      <c r="ABH1" s="1" t="inlineStr">
+        <is>
+          <t>play</t>
+        </is>
+      </c>
+      <c r="ABI1" s="1" t="inlineStr">
+        <is>
+          <t>reducing</t>
+        </is>
+      </c>
+      <c r="ABJ1" s="1" t="inlineStr">
+        <is>
+          <t>relation</t>
+        </is>
+      </c>
+      <c r="ABK1" s="1" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="ABL1" s="1" t="inlineStr">
+        <is>
+          <t>repeated</t>
+        </is>
+      </c>
+      <c r="ABM1" s="1" t="inlineStr">
+        <is>
+          <t>situations</t>
+        </is>
+      </c>
+      <c r="ABN1" s="1" t="inlineStr">
+        <is>
+          <t>self-imposed</t>
+        </is>
+      </c>
+      <c r="ABO1" s="1" t="inlineStr">
+        <is>
+          <t>socially</t>
+        </is>
+      </c>
+      <c r="ABP1" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="ABQ1" s="1" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="ABR1" s="1" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="ABS1" s="1" t="inlineStr">
+        <is>
+          <t>answers</t>
+        </is>
+      </c>
+      <c r="ABT1" s="1" t="inlineStr">
+        <is>
+          <t>identifying</t>
+        </is>
+      </c>
+      <c r="ABU1" s="1" t="inlineStr">
+        <is>
+          <t>fourth-</t>
+        </is>
+      </c>
+      <c r="ABV1" s="1" t="inlineStr">
+        <is>
+          <t>expand</t>
+        </is>
+      </c>
+      <c r="ABW1" s="1" t="inlineStr">
+        <is>
+          <t>incorrect</t>
+        </is>
+      </c>
+      <c r="ABX1" s="1" t="inlineStr">
+        <is>
+          <t>investigated</t>
+        </is>
+      </c>
+      <c r="ABY1" s="1" t="inlineStr">
         <is>
           <t>differentiating</t>
         </is>
       </c>
-      <c r="YT1" s="1" t="inlineStr">
-        <is>
-          <t>multisource</t>
-        </is>
-      </c>
-      <c r="YU1" s="1" t="inlineStr">
-        <is>
-          <t>multimethod</t>
-        </is>
-      </c>
-      <c r="YV1" s="1" t="inlineStr">
-        <is>
-          <t>addressing</t>
-        </is>
-      </c>
-      <c r="YW1" s="1" t="inlineStr">
-        <is>
-          <t>meetings</t>
-        </is>
-      </c>
-      <c r="YX1" s="1" t="inlineStr">
-        <is>
-          <t>informs</t>
-        </is>
-      </c>
-      <c r="YY1" s="1" t="inlineStr">
-        <is>
-          <t>empirically-based</t>
-        </is>
-      </c>
-      <c r="YZ1" s="1" t="inlineStr">
-        <is>
-          <t>individualized</t>
-        </is>
-      </c>
-      <c r="ZA1" s="1" t="inlineStr">
-        <is>
-          <t>greater</t>
-        </is>
-      </c>
-      <c r="ZB1" s="1" t="inlineStr">
-        <is>
-          <t>coaches</t>
-        </is>
-      </c>
-      <c r="ZC1" s="1" t="inlineStr">
-        <is>
-          <t>dual</t>
-        </is>
-      </c>
-      <c r="ZD1" s="1" t="inlineStr">
-        <is>
-          <t>disabilities</t>
-        </is>
-      </c>
-      <c r="ZE1" s="1" t="inlineStr">
-        <is>
-          <t>describes</t>
-        </is>
-      </c>
-      <c r="ZF1" s="1" t="inlineStr">
-        <is>
-          <t>demonstrated</t>
-        </is>
-      </c>
-      <c r="ZG1" s="1" t="inlineStr">
+      <c r="ABZ1" s="1" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
+      <c r="ACA1" s="1" t="inlineStr">
+        <is>
+          <t>classifying</t>
+        </is>
+      </c>
+      <c r="ACB1" s="1" t="inlineStr">
+        <is>
+          <t>makes</t>
+        </is>
+      </c>
+      <c r="ACC1" s="1" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="ACD1" s="1" t="inlineStr">
+        <is>
+          <t>assumptions</t>
+        </is>
+      </c>
+      <c r="ACE1" s="1" t="inlineStr">
+        <is>
+          <t>range</t>
+        </is>
+      </c>
+      <c r="ACF1" s="1" t="inlineStr">
+        <is>
+          <t>ready</t>
+        </is>
+      </c>
+      <c r="ACG1" s="1" t="inlineStr">
+        <is>
+          <t>referred</t>
+        </is>
+      </c>
+      <c r="ACH1" s="1" t="inlineStr">
+        <is>
+          <t>1,893</t>
+        </is>
+      </c>
+      <c r="ACI1" s="1" t="inlineStr">
+        <is>
+          <t>14.40</t>
+        </is>
+      </c>
+      <c r="ACJ1" s="1" t="inlineStr">
+        <is>
+          <t>5-week</t>
+        </is>
+      </c>
+      <c r="ACK1" s="1" t="inlineStr">
         <is>
           <t>6-week</t>
         </is>
       </c>
-      <c r="ZH1" s="1" t="inlineStr">
-        <is>
-          <t>3,865</t>
-        </is>
-      </c>
-      <c r="ZI1" s="1" t="inlineStr">
-        <is>
-          <t>5-week</t>
-        </is>
-      </c>
-      <c r="ZJ1" s="1" t="inlineStr">
-        <is>
-          <t>across</t>
-        </is>
-      </c>
-      <c r="ZK1" s="1" t="inlineStr">
-        <is>
-          <t>developed</t>
-        </is>
-      </c>
-      <c r="ZL1" s="1" t="inlineStr">
-        <is>
-          <t>benefits</t>
-        </is>
-      </c>
-      <c r="ZM1" s="1" t="inlineStr">
-        <is>
-          <t>classified</t>
-        </is>
-      </c>
-      <c r="ZN1" s="1" t="inlineStr">
-        <is>
-          <t>directions</t>
-        </is>
-      </c>
-      <c r="ZO1" s="1" t="inlineStr">
-        <is>
-          <t>evaluate</t>
-        </is>
-      </c>
-      <c r="ZP1" s="1" t="inlineStr">
-        <is>
-          <t>tier</t>
-        </is>
-      </c>
-      <c r="ZQ1" s="1" t="inlineStr">
-        <is>
-          <t>coach</t>
-        </is>
-      </c>
-      <c r="ZR1" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="ZS1" s="1" t="inlineStr">
-        <is>
-          <t>writing</t>
-        </is>
-      </c>
-      <c r="ZT1" s="1" t="inlineStr">
-        <is>
-          <t>tasks</t>
-        </is>
-      </c>
-      <c r="ZU1" s="1" t="inlineStr">
-        <is>
-          <t>systems</t>
-        </is>
-      </c>
-      <c r="ZV1" s="1" t="inlineStr">
-        <is>
-          <t>ap</t>
-        </is>
-      </c>
-      <c r="ZW1" s="1" t="inlineStr">
-        <is>
-          <t>stressors</t>
-        </is>
-      </c>
-      <c r="ZX1" s="1" t="inlineStr">
-        <is>
-          <t>standardization</t>
-        </is>
-      </c>
-      <c r="ZY1" s="1" t="inlineStr">
-        <is>
-          <t>social-emotional</t>
-        </is>
-      </c>
-      <c r="ZZ1" s="1" t="inlineStr">
-        <is>
-          <t>speeded</t>
-        </is>
-      </c>
-      <c r="AAA1" s="1" t="inlineStr">
-        <is>
-          <t>school-age</t>
-        </is>
-      </c>
-      <c r="AAB1" s="1" t="inlineStr">
-        <is>
-          <t>recommendations</t>
-        </is>
-      </c>
-      <c r="AAC1" s="1" t="inlineStr">
-        <is>
-          <t>meet</t>
-        </is>
-      </c>
-      <c r="AAD1" s="1" t="inlineStr">
-        <is>
-          <t>school-related</t>
-        </is>
-      </c>
-      <c r="AAE1" s="1" t="inlineStr">
-        <is>
-          <t>change</t>
-        </is>
-      </c>
-      <c r="AAF1" s="1" t="inlineStr">
-        <is>
-          <t>quantitative</t>
-        </is>
-      </c>
-      <c r="AAG1" s="1" t="inlineStr">
-        <is>
-          <t>population</t>
-        </is>
-      </c>
-      <c r="AAH1" s="1" t="inlineStr">
-        <is>
-          <t>past</t>
-        </is>
-      </c>
-      <c r="AAI1" s="1" t="inlineStr">
-        <is>
-          <t>planning</t>
-        </is>
-      </c>
-      <c r="AAJ1" s="1" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="AAK1" s="1" t="inlineStr">
-        <is>
-          <t>literature</t>
-        </is>
-      </c>
-      <c r="AAL1" s="1" t="inlineStr">
-        <is>
-          <t>intraindividual</t>
-        </is>
-      </c>
-      <c r="AAM1" s="1" t="inlineStr">
-        <is>
-          <t>9th-grade</t>
-        </is>
-      </c>
-      <c r="AAN1" s="1" t="inlineStr">
-        <is>
-          <t>woodcock-johnson</t>
-        </is>
-      </c>
-      <c r="AAO1" s="1" t="inlineStr">
-        <is>
-          <t>behavior</t>
-        </is>
-      </c>
-      <c r="AAP1" s="1" t="inlineStr">
-        <is>
-          <t>acceptable</t>
-        </is>
-      </c>
-      <c r="AAQ1" s="1" t="inlineStr">
-        <is>
-          <t>end-users</t>
-        </is>
-      </c>
-      <c r="AAR1" s="1" t="inlineStr">
-        <is>
-          <t>expand</t>
-        </is>
-      </c>
-      <c r="AAS1" s="1" t="inlineStr">
-        <is>
-          <t>evoke</t>
-        </is>
-      </c>
-      <c r="AAT1" s="1" t="inlineStr">
-        <is>
-          <t>relation</t>
-        </is>
-      </c>
-      <c r="AAU1" s="1" t="inlineStr">
-        <is>
-          <t>socially</t>
-        </is>
-      </c>
-      <c r="AAV1" s="1" t="inlineStr">
+      <c r="ACL1" s="1" t="inlineStr">
+        <is>
+          <t>affect</t>
+        </is>
+      </c>
+      <c r="ACM1" s="1" t="inlineStr">
+        <is>
+          <t>sixth-grade</t>
+        </is>
+      </c>
+      <c r="ACN1" s="1" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="ACO1" s="1" t="inlineStr">
+        <is>
+          <t>bonferroni-adjusted</t>
+        </is>
+      </c>
+      <c r="ACP1" s="1" t="inlineStr">
+        <is>
+          <t>changes</t>
+        </is>
+      </c>
+      <c r="ACQ1" s="1" t="inlineStr">
+        <is>
+          <t>decrease</t>
+        </is>
+      </c>
+      <c r="ACR1" s="1" t="inlineStr">
+        <is>
+          <t>emotional</t>
+        </is>
+      </c>
+      <c r="ACS1" s="1" t="inlineStr">
         <is>
           <t>theories</t>
         </is>
       </c>
-      <c r="AAW1" s="1" t="inlineStr">
-        <is>
-          <t>through</t>
-        </is>
-      </c>
-      <c r="AAX1" s="1" t="inlineStr">
+      <c r="ACT1" s="1" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="ACU1" s="1" t="inlineStr">
+        <is>
+          <t>experience</t>
+        </is>
+      </c>
+      <c r="ACV1" s="1" t="inlineStr">
         <is>
           <t>122</t>
         </is>
       </c>
-      <c r="AAY1" s="1" t="inlineStr">
+      <c r="ACW1" s="1" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="AAZ1" s="1" t="inlineStr">
-        <is>
-          <t>14.40</t>
-        </is>
-      </c>
-      <c r="ABA1" s="1" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="ABB1" s="1" t="inlineStr">
-        <is>
-          <t>emotional</t>
-        </is>
-      </c>
-      <c r="ABC1" s="1" t="inlineStr">
-        <is>
-          <t>age</t>
-        </is>
-      </c>
-      <c r="ABD1" s="1" t="inlineStr">
-        <is>
-          <t>aggressor</t>
-        </is>
-      </c>
-      <c r="ABE1" s="1" t="inlineStr">
-        <is>
-          <t>bullying</t>
-        </is>
-      </c>
-      <c r="ABF1" s="1" t="inlineStr">
-        <is>
-          <t>case-control</t>
-        </is>
-      </c>
-      <c r="ABG1" s="1" t="inlineStr">
-        <is>
-          <t>classmates</t>
-        </is>
-      </c>
-      <c r="ABH1" s="1" t="inlineStr">
-        <is>
-          <t>compulsory</t>
-        </is>
-      </c>
-      <c r="ABI1" s="1" t="inlineStr">
-        <is>
-          <t>conflicts</t>
-        </is>
-      </c>
-      <c r="ABJ1" s="1" t="inlineStr">
-        <is>
-          <t>deriving</t>
-        </is>
-      </c>
-      <c r="ABK1" s="1" t="inlineStr">
-        <is>
-          <t>dimensions</t>
-        </is>
-      </c>
-      <c r="ABL1" s="1" t="inlineStr">
-        <is>
-          <t>either</t>
-        </is>
-      </c>
-      <c r="ABM1" s="1" t="inlineStr">
-        <is>
-          <t>existing</t>
-        </is>
-      </c>
-      <c r="ABN1" s="1" t="inlineStr">
-        <is>
-          <t>explaining</t>
-        </is>
-      </c>
-      <c r="ABO1" s="1" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="ABP1" s="1" t="inlineStr">
-        <is>
-          <t>incidence</t>
-        </is>
-      </c>
-      <c r="ABQ1" s="1" t="inlineStr">
-        <is>
-          <t>following</t>
-        </is>
-      </c>
-      <c r="ABR1" s="1" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="ABS1" s="1" t="inlineStr">
-        <is>
-          <t>nevertheless</t>
-        </is>
-      </c>
-      <c r="ABT1" s="1" t="inlineStr">
-        <is>
-          <t>self-imposed</t>
-        </is>
-      </c>
-      <c r="ABU1" s="1" t="inlineStr">
-        <is>
-          <t>repeated</t>
-        </is>
-      </c>
-      <c r="ABV1" s="1" t="inlineStr">
-        <is>
-          <t>reducing</t>
-        </is>
-      </c>
-      <c r="ABW1" s="1" t="inlineStr">
-        <is>
-          <t>1,893</t>
-        </is>
-      </c>
-      <c r="ABX1" s="1" t="inlineStr">
-        <is>
-          <t>fourth-</t>
-        </is>
-      </c>
-      <c r="ABY1" s="1" t="inlineStr">
-        <is>
-          <t>frameworks</t>
-        </is>
-      </c>
-      <c r="ABZ1" s="1" t="inlineStr">
-        <is>
-          <t>hereinafter</t>
-        </is>
-      </c>
-      <c r="ACA1" s="1" t="inlineStr">
-        <is>
-          <t>correct</t>
-        </is>
-      </c>
-      <c r="ACB1" s="1" t="inlineStr">
-        <is>
-          <t>identifying</t>
-        </is>
-      </c>
-      <c r="ACC1" s="1" t="inlineStr">
-        <is>
-          <t>classifying</t>
-        </is>
-      </c>
-      <c r="ACD1" s="1" t="inlineStr">
-        <is>
-          <t>classification</t>
-        </is>
-      </c>
-      <c r="ACE1" s="1" t="inlineStr">
-        <is>
-          <t>incorrect</t>
-        </is>
-      </c>
-      <c r="ACF1" s="1" t="inlineStr">
-        <is>
-          <t>investigated</t>
-        </is>
-      </c>
-      <c r="ACG1" s="1" t="inlineStr">
-        <is>
-          <t>assumptions</t>
-        </is>
-      </c>
-      <c r="ACH1" s="1" t="inlineStr">
-        <is>
-          <t>answers</t>
-        </is>
-      </c>
-      <c r="ACI1" s="1" t="inlineStr">
-        <is>
-          <t>makes</t>
-        </is>
-      </c>
-      <c r="ACJ1" s="1" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="ACK1" s="1" t="inlineStr">
-        <is>
-          <t>performed</t>
-        </is>
-      </c>
-      <c r="ACL1" s="1" t="inlineStr">
-        <is>
-          <t>post-</t>
-        </is>
-      </c>
-      <c r="ACM1" s="1" t="inlineStr">
-        <is>
-          <t>range</t>
-        </is>
-      </c>
-      <c r="ACN1" s="1" t="inlineStr">
-        <is>
-          <t>ready</t>
-        </is>
-      </c>
-      <c r="ACO1" s="1" t="inlineStr">
-        <is>
-          <t>referred</t>
-        </is>
-      </c>
-      <c r="ACP1" s="1" t="inlineStr">
-        <is>
-          <t>practices</t>
-        </is>
-      </c>
-      <c r="ACQ1" s="1" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="ACR1" s="1" t="inlineStr">
-        <is>
-          <t>pre-</t>
-        </is>
-      </c>
-      <c r="ACS1" s="1" t="inlineStr">
-        <is>
-          <t>prescribed</t>
-        </is>
-      </c>
-      <c r="ACT1" s="1" t="inlineStr">
-        <is>
-          <t>quasi-experimental</t>
-        </is>
-      </c>
-      <c r="ACU1" s="1" t="inlineStr">
-        <is>
-          <t>sixth-grade</t>
-        </is>
-      </c>
-      <c r="ACV1" s="1" t="inlineStr">
-        <is>
-          <t>play</t>
-        </is>
-      </c>
-      <c r="ACW1" s="1" t="inlineStr">
-        <is>
-          <t>intrapersonal</t>
-        </is>
-      </c>
       <c r="ACX1" s="1" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>victim</t>
         </is>
       </c>
       <c r="ACY1" s="1" t="inlineStr">
         <is>
+          <t>regarding</t>
+        </is>
+      </c>
+      <c r="ACZ1" s="1" t="inlineStr">
+        <is>
+          <t>consisted</t>
+        </is>
+      </c>
+      <c r="ADA1" s="1" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+      <c r="ADB1" s="1" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="ADC1" s="1" t="inlineStr">
+        <is>
+          <t>viewed</t>
+        </is>
+      </c>
+      <c r="ADD1" s="1" t="inlineStr">
+        <is>
+          <t>variety</t>
+        </is>
+      </c>
+      <c r="ADE1" s="1" t="inlineStr">
+        <is>
           <t>sizes</t>
         </is>
       </c>
-      <c r="ACZ1" s="1" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="ADA1" s="1" t="inlineStr">
+      <c r="ADF1" s="1" t="inlineStr">
+        <is>
+          <t>increased</t>
+        </is>
+      </c>
+      <c r="ADG1" s="1" t="inlineStr">
+        <is>
+          <t>self-regulation/motivation</t>
+        </is>
+      </c>
+      <c r="ADH1" s="1" t="inlineStr">
+        <is>
+          <t>reviewed</t>
+        </is>
+      </c>
+      <c r="ADI1" s="1" t="inlineStr">
+        <is>
+          <t>reverse</t>
+        </is>
+      </c>
+      <c r="ADJ1" s="1" t="inlineStr">
+        <is>
+          <t>relatively</t>
+        </is>
+      </c>
+      <c r="ADK1" s="1" t="inlineStr">
+        <is>
+          <t>cohorts</t>
+        </is>
+      </c>
+      <c r="ADL1" s="1" t="inlineStr">
+        <is>
+          <t>empirical</t>
+        </is>
+      </c>
+      <c r="ADM1" s="1" t="inlineStr">
+        <is>
+          <t>receiving</t>
+        </is>
+      </c>
+      <c r="ADN1" s="1" t="inlineStr">
+        <is>
+          <t>perceptions</t>
+        </is>
+      </c>
+      <c r="ADO1" s="1" t="inlineStr">
+        <is>
+          <t>outscored</t>
+        </is>
+      </c>
+      <c r="ADP1" s="1" t="inlineStr">
+        <is>
+          <t>environmental</t>
+        </is>
+      </c>
+      <c r="ADQ1" s="1" t="inlineStr">
         <is>
           <t>meaningful</t>
         </is>
       </c>
-      <c r="ADB1" s="1" t="inlineStr">
-        <is>
-          <t>situations</t>
-        </is>
-      </c>
-      <c r="ADC1" s="1" t="inlineStr">
-        <is>
-          <t>outscored</t>
-        </is>
-      </c>
-      <c r="ADD1" s="1" t="inlineStr">
-        <is>
-          <t>experience</t>
-        </is>
-      </c>
-      <c r="ADE1" s="1" t="inlineStr">
-        <is>
-          <t>perceptions</t>
-        </is>
-      </c>
-      <c r="ADF1" s="1" t="inlineStr">
-        <is>
-          <t>receiving</t>
-        </is>
-      </c>
-      <c r="ADG1" s="1" t="inlineStr">
-        <is>
-          <t>relatively</t>
-        </is>
-      </c>
-      <c r="ADH1" s="1" t="inlineStr">
-        <is>
-          <t>reverse</t>
-        </is>
-      </c>
-      <c r="ADI1" s="1" t="inlineStr">
-        <is>
-          <t>reviewed</t>
-        </is>
-      </c>
-      <c r="ADJ1" s="1" t="inlineStr">
-        <is>
-          <t>self-regulation/motivation</t>
-        </is>
-      </c>
-      <c r="ADK1" s="1" t="inlineStr">
-        <is>
-          <t>variety</t>
-        </is>
-      </c>
-      <c r="ADL1" s="1" t="inlineStr">
-        <is>
-          <t>increased</t>
-        </is>
-      </c>
-      <c r="ADM1" s="1" t="inlineStr">
-        <is>
-          <t>viewed</t>
-        </is>
-      </c>
-      <c r="ADN1" s="1" t="inlineStr">
-        <is>
-          <t>de-emphasis</t>
-        </is>
-      </c>
-      <c r="ADO1" s="1" t="inlineStr">
-        <is>
-          <t>individual</t>
-        </is>
-      </c>
-      <c r="ADP1" s="1" t="inlineStr">
-        <is>
-          <t>indicate</t>
-        </is>
-      </c>
-      <c r="ADQ1" s="1" t="inlineStr">
-        <is>
-          <t>ib</t>
-        </is>
-      </c>
       <c r="ADR1" s="1" t="inlineStr">
         <is>
-          <t>forms</t>
+          <t>generally</t>
         </is>
       </c>
       <c r="ADS1" s="1" t="inlineStr">
         <is>
-          <t>heightened</t>
+          <t>light</t>
         </is>
       </c>
       <c r="ADT1" s="1" t="inlineStr">
         <is>
-          <t>health</t>
+          <t>admissions</t>
         </is>
       </c>
       <c r="ADU1" s="1" t="inlineStr">
         <is>
-          <t>grounded</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="ADV1" s="1" t="inlineStr">
         <is>
-          <t>affect</t>
+          <t>collected</t>
         </is>
       </c>
       <c r="ADW1" s="1" t="inlineStr">
         <is>
-          <t>freshmen</t>
+          <t>14</t>
         </is>
       </c>
       <c r="ADX1" s="1" t="inlineStr">
         <is>
-          <t>light</t>
+          <t>observational</t>
         </is>
       </c>
       <c r="ADY1" s="1" t="inlineStr">
         <is>
-          <t>frequently</t>
+          <t>.001</t>
         </is>
       </c>
       <c r="ADZ1" s="1" t="inlineStr">
         <is>
-          <t>generally</t>
+          <t>.09</t>
         </is>
       </c>
       <c r="AEA1" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>.387</t>
         </is>
       </c>
       <c r="AEB1" s="1" t="inlineStr">
         <is>
-          <t>victim</t>
+          <t>not-for</t>
         </is>
       </c>
       <c r="AEC1" s="1" t="inlineStr">
         <is>
-          <t>years</t>
+          <t>mechanism</t>
         </is>
       </c>
       <c r="AED1" s="1" t="inlineStr">
         <is>
-          <t>decrease</t>
+          <t>concern</t>
         </is>
       </c>
       <c r="AEE1" s="1" t="inlineStr">
         <is>
-          <t>changes</t>
+          <t>kindergarten</t>
         </is>
       </c>
       <c r="AEF1" s="1" t="inlineStr">
         <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="AEG1" s="1" t="inlineStr">
+        <is>
+          <t>instituting</t>
+        </is>
+      </c>
+      <c r="AEH1" s="1" t="inlineStr">
+        <is>
+          <t>proprietary</t>
+        </is>
+      </c>
+      <c r="AEI1" s="1" t="inlineStr">
+        <is>
+          <t>benefited</t>
+        </is>
+      </c>
+      <c r="AEJ1" s="1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="AEK1" s="1" t="inlineStr">
+        <is>
+          <t>finds</t>
+        </is>
+      </c>
+      <c r="AEL1" s="1" t="inlineStr">
+        <is>
+          <t>favoring</t>
+        </is>
+      </c>
+      <c r="AEM1" s="1" t="inlineStr">
+        <is>
+          <t>equity</t>
+        </is>
+      </c>
+      <c r="AEN1" s="1" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="AEO1" s="1" t="inlineStr">
+        <is>
           <t>field</t>
         </is>
       </c>
-      <c r="AEG1" s="1" t="inlineStr">
-        <is>
-          <t>.001</t>
-        </is>
-      </c>
-      <c r="AEH1" s="1" t="inlineStr">
-        <is>
-          <t>.09</t>
-        </is>
-      </c>
-      <c r="AEI1" s="1" t="inlineStr">
-        <is>
-          <t>.387</t>
-        </is>
-      </c>
-      <c r="AEJ1" s="1" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="AEK1" s="1" t="inlineStr">
-        <is>
-          <t>bonferroni-adjusted</t>
-        </is>
-      </c>
-      <c r="AEL1" s="1" t="inlineStr">
-        <is>
-          <t>benefited</t>
-        </is>
-      </c>
-      <c r="AEM1" s="1" t="inlineStr">
-        <is>
-          <t>consisted</t>
-        </is>
-      </c>
-      <c r="AEN1" s="1" t="inlineStr">
-        <is>
-          <t>environmental</t>
-        </is>
-      </c>
-      <c r="AEO1" s="1" t="inlineStr">
-        <is>
-          <t>empirical</t>
-        </is>
-      </c>
       <c r="AEP1" s="1" t="inlineStr">
         <is>
-          <t>course</t>
+          <t>board</t>
         </is>
       </c>
       <c r="AEQ1" s="1" t="inlineStr">
         <is>
-          <t>consistent</t>
+          <t>berge</t>
         </is>
       </c>
       <c r="AER1" s="1" t="inlineStr">
         <is>
-          <t>concern</t>
+          <t>asynchronous</t>
         </is>
       </c>
       <c r="AES1" s="1" t="inlineStr">
         <is>
-          <t>board</t>
+          <t>beginning</t>
         </is>
       </c>
       <c r="AET1" s="1" t="inlineStr">
         <is>
+          <t>widespread</t>
+        </is>
+      </c>
+      <c r="AEU1" s="1" t="inlineStr">
+        <is>
+          <t>antecedents</t>
+        </is>
+      </c>
+      <c r="AEV1" s="1" t="inlineStr">
+        <is>
+          <t>assignments</t>
+        </is>
+      </c>
+      <c r="AEW1" s="1" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="AEX1" s="1" t="inlineStr">
+        <is>
+          <t>along</t>
+        </is>
+      </c>
+      <c r="AEY1" s="1" t="inlineStr">
+        <is>
+          <t>ability-achievement</t>
+        </is>
+      </c>
+      <c r="AEZ1" s="1" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="AFA1" s="1" t="inlineStr">
+        <is>
+          <t>beliefs</t>
+        </is>
+      </c>
+      <c r="AFB1" s="1" t="inlineStr">
+        <is>
+          <t>contrasts</t>
+        </is>
+      </c>
+      <c r="AFC1" s="1" t="inlineStr">
+        <is>
+          <t>choose</t>
+        </is>
+      </c>
+      <c r="AFD1" s="1" t="inlineStr">
+        <is>
+          <t>encourage</t>
+        </is>
+      </c>
+      <c r="AFE1" s="1" t="inlineStr">
+        <is>
+          <t>extent</t>
+        </is>
+      </c>
+      <c r="AFF1" s="1" t="inlineStr">
+        <is>
+          <t>implement</t>
+        </is>
+      </c>
+      <c r="AFG1" s="1" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="AFH1" s="1" t="inlineStr">
+        <is>
+          <t>incorporating</t>
+        </is>
+      </c>
+      <c r="AFI1" s="1" t="inlineStr">
+        <is>
+          <t>instructor</t>
+        </is>
+      </c>
+      <c r="AFJ1" s="1" t="inlineStr">
+        <is>
           <t>investigate</t>
         </is>
       </c>
-      <c r="AEU1" s="1" t="inlineStr">
+      <c r="AFK1" s="1" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="AFL1" s="1" t="inlineStr">
+        <is>
+          <t>pd</t>
+        </is>
+      </c>
+      <c r="AFM1" s="1" t="inlineStr">
+        <is>
+          <t>project</t>
+        </is>
+      </c>
+      <c r="AFN1" s="1" t="inlineStr">
+        <is>
+          <t>research-based</t>
+        </is>
+      </c>
+      <c r="AFO1" s="1" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
+      <c r="AFP1" s="1" t="inlineStr">
+        <is>
+          <t>self-report</t>
+        </is>
+      </c>
+      <c r="AFQ1" s="1" t="inlineStr">
+        <is>
+          <t>six</t>
+        </is>
+      </c>
+      <c r="AFR1" s="1" t="inlineStr">
+        <is>
+          <t>usefulness</t>
+        </is>
+      </c>
+      <c r="AFS1" s="1" t="inlineStr">
+        <is>
+          <t>policy</t>
+        </is>
+      </c>
+      <c r="AFT1" s="1" t="inlineStr">
+        <is>
+          <t>practice</t>
+        </is>
+      </c>
+      <c r="AFU1" s="1" t="inlineStr">
+        <is>
+          <t>technology</t>
+        </is>
+      </c>
+      <c r="AFV1" s="1" t="inlineStr">
+        <is>
+          <t>moderation</t>
+        </is>
+      </c>
+      <c r="AFW1" s="1" t="inlineStr">
+        <is>
+          <t>mathematics</t>
+        </is>
+      </c>
+      <c r="AFX1" s="1" t="inlineStr">
+        <is>
+          <t>consequences</t>
+        </is>
+      </c>
+      <c r="AFY1" s="1" t="inlineStr">
+        <is>
+          <t>many</t>
+        </is>
+      </c>
+      <c r="AFZ1" s="1" t="inlineStr">
+        <is>
+          <t>defined</t>
+        </is>
+      </c>
+      <c r="AGA1" s="1" t="inlineStr">
+        <is>
+          <t>discrepancies</t>
+        </is>
+      </c>
+      <c r="AGB1" s="1" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="AGC1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="AGD1" s="1" t="inlineStr">
+        <is>
+          <t>discrepancy</t>
+        </is>
+      </c>
+      <c r="AGE1" s="1" t="inlineStr">
+        <is>
+          <t>engineering</t>
+        </is>
+      </c>
+      <c r="AGF1" s="1" t="inlineStr">
         <is>
           <t>designers</t>
         </is>
       </c>
-      <c r="AEV1" s="1" t="inlineStr">
+      <c r="AGG1" s="1" t="inlineStr">
+        <is>
+          <t>examines</t>
+        </is>
+      </c>
+      <c r="AGH1" s="1" t="inlineStr">
+        <is>
+          <t>examining</t>
+        </is>
+      </c>
+      <c r="AGI1" s="1" t="inlineStr">
+        <is>
+          <t>exhibited</t>
+        </is>
+      </c>
+      <c r="AGJ1" s="1" t="inlineStr">
         <is>
           <t>directly</t>
         </is>
       </c>
-      <c r="AEW1" s="1" t="inlineStr">
-        <is>
-          <t>implement</t>
-        </is>
-      </c>
-      <c r="AEX1" s="1" t="inlineStr">
-        <is>
-          <t>asynchronous</t>
-        </is>
-      </c>
-      <c r="AEY1" s="1" t="inlineStr">
+      <c r="AGK1" s="1" t="inlineStr">
+        <is>
+          <t>expectancy</t>
+        </is>
+      </c>
+      <c r="AGL1" s="1" t="inlineStr">
         <is>
           <t>distance</t>
         </is>
       </c>
-      <c r="AEZ1" s="1" t="inlineStr">
-        <is>
-          <t>each</t>
-        </is>
-      </c>
-      <c r="AFA1" s="1" t="inlineStr">
-        <is>
-          <t>extent</t>
-        </is>
-      </c>
-      <c r="AFB1" s="1" t="inlineStr">
-        <is>
-          <t>contrasts</t>
-        </is>
-      </c>
-      <c r="AFC1" s="1" t="inlineStr">
-        <is>
-          <t>choose</t>
-        </is>
-      </c>
-      <c r="AFD1" s="1" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
-      <c r="AFE1" s="1" t="inlineStr">
-        <is>
-          <t>instructor</t>
-        </is>
-      </c>
-      <c r="AFF1" s="1" t="inlineStr">
-        <is>
-          <t>encourage</t>
-        </is>
-      </c>
-      <c r="AFG1" s="1" t="inlineStr">
-        <is>
-          <t>incorporating</t>
-        </is>
-      </c>
-      <c r="AFH1" s="1" t="inlineStr">
-        <is>
-          <t>berge</t>
-        </is>
-      </c>
-      <c r="AFI1" s="1" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="AFJ1" s="1" t="inlineStr">
-        <is>
-          <t>assignments</t>
-        </is>
-      </c>
-      <c r="AFK1" s="1" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
-      </c>
-      <c r="AFL1" s="1" t="inlineStr">
+      <c r="AGM1" s="1" t="inlineStr">
+        <is>
+          <t>fall</t>
+        </is>
+      </c>
+      <c r="AGN1" s="1" t="inlineStr">
         <is>
           <t>edinger</t>
         </is>
       </c>
-      <c r="AFM1" s="1" t="inlineStr">
-        <is>
-          <t>observational</t>
-        </is>
-      </c>
-      <c r="AFN1" s="1" t="inlineStr">
-        <is>
-          <t>optimal</t>
-        </is>
-      </c>
-      <c r="AFO1" s="1" t="inlineStr">
-        <is>
-          <t>beginning</t>
-        </is>
-      </c>
-      <c r="AFP1" s="1" t="inlineStr">
-        <is>
-          <t>along</t>
-        </is>
-      </c>
-      <c r="AFQ1" s="1" t="inlineStr">
-        <is>
-          <t>ability-achievement</t>
-        </is>
-      </c>
-      <c r="AFR1" s="1" t="inlineStr">
-        <is>
-          <t>underscoring</t>
-        </is>
-      </c>
-      <c r="AFS1" s="1" t="inlineStr">
-        <is>
-          <t>underlying</t>
-        </is>
-      </c>
-      <c r="AFT1" s="1" t="inlineStr">
-        <is>
-          <t>targeted</t>
-        </is>
-      </c>
-      <c r="AFU1" s="1" t="inlineStr">
-        <is>
-          <t>students-those</t>
-        </is>
-      </c>
-      <c r="AFV1" s="1" t="inlineStr">
-        <is>
-          <t>statistically</t>
-        </is>
-      </c>
-      <c r="AFW1" s="1" t="inlineStr">
-        <is>
-          <t>sector</t>
-        </is>
-      </c>
-      <c r="AFX1" s="1" t="inlineStr">
-        <is>
-          <t>regarding</t>
-        </is>
-      </c>
-      <c r="AFY1" s="1" t="inlineStr">
-        <is>
-          <t>proprietary</t>
-        </is>
-      </c>
-      <c r="AFZ1" s="1" t="inlineStr">
-        <is>
-          <t>promoting</t>
-        </is>
-      </c>
-      <c r="AGA1" s="1" t="inlineStr">
-        <is>
-          <t>prior</t>
-        </is>
-      </c>
-      <c r="AGB1" s="1" t="inlineStr">
-        <is>
-          <t>plausible</t>
-        </is>
-      </c>
-      <c r="AGC1" s="1" t="inlineStr">
-        <is>
-          <t>outreach</t>
-        </is>
-      </c>
-      <c r="AGD1" s="1" t="inlineStr">
-        <is>
-          <t>not-for</t>
-        </is>
-      </c>
-      <c r="AGE1" s="1" t="inlineStr">
-        <is>
-          <t>mechanism</t>
-        </is>
-      </c>
-      <c r="AGF1" s="1" t="inlineStr">
-        <is>
-          <t>kindergarten</t>
-        </is>
-      </c>
-      <c r="AGG1" s="1" t="inlineStr">
-        <is>
-          <t>instituting</t>
-        </is>
-      </c>
-      <c r="AGH1" s="1" t="inlineStr">
-        <is>
-          <t>inequality</t>
-        </is>
-      </c>
-      <c r="AGI1" s="1" t="inlineStr">
-        <is>
-          <t>if</t>
-        </is>
-      </c>
-      <c r="AGJ1" s="1" t="inlineStr">
-        <is>
-          <t>help</t>
-        </is>
-      </c>
-      <c r="AGK1" s="1" t="inlineStr">
-        <is>
-          <t>finds</t>
-        </is>
-      </c>
-      <c r="AGL1" s="1" t="inlineStr">
-        <is>
-          <t>favoring</t>
-        </is>
-      </c>
-      <c r="AGM1" s="1" t="inlineStr">
-        <is>
-          <t>equity</t>
-        </is>
-      </c>
-      <c r="AGN1" s="1" t="inlineStr">
-        <is>
-          <t>could</t>
-        </is>
-      </c>
       <c r="AGO1" s="1" t="inlineStr">
         <is>
-          <t>collected</t>
+          <t>final</t>
         </is>
       </c>
       <c r="AGP1" s="1" t="inlineStr">
         <is>
-          <t>cohorts</t>
+          <t>informed</t>
         </is>
       </c>
       <c r="AGQ1" s="1" t="inlineStr">
         <is>
-          <t>admissions</t>
+          <t>satisfy</t>
         </is>
       </c>
       <c r="AGR1" s="1" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>written</t>
         </is>
       </c>
       <c r="AGS1" s="1" t="inlineStr">
         <is>
-          <t>antecedents</t>
+          <t>undiagnosed</t>
         </is>
       </c>
       <c r="AGT1" s="1" t="inlineStr">
         <is>
-          <t>beliefs</t>
+          <t>influential</t>
         </is>
       </c>
       <c r="AGU1" s="1" t="inlineStr">
         <is>
-          <t>pd</t>
+          <t>kindergartners</t>
         </is>
       </c>
       <c r="AGV1" s="1" t="inlineStr">
         <is>
-          <t>consequences</t>
+          <t>group-specific</t>
         </is>
       </c>
       <c r="AGW1" s="1" t="inlineStr">
         <is>
-          <t>project</t>
+          <t>gifted/talented</t>
         </is>
       </c>
       <c r="AGX1" s="1" t="inlineStr">
         <is>
-          <t>research-based</t>
+          <t>district</t>
         </is>
       </c>
       <c r="AGY1" s="1" t="inlineStr">
         <is>
-          <t>roles</t>
+          <t>cogat7</t>
         </is>
       </c>
       <c r="AGZ1" s="1" t="inlineStr">
         <is>
-          <t>satisfy</t>
+          <t>best</t>
         </is>
       </c>
       <c r="AHA1" s="1" t="inlineStr">
         <is>
-          <t>self-report</t>
+          <t>additionally</t>
         </is>
       </c>
       <c r="AHB1" s="1" t="inlineStr">
         <is>
-          <t>six</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="AHC1" s="1" t="inlineStr">
         <is>
-          <t>usefulness</t>
+          <t>15,733</t>
         </is>
       </c>
       <c r="AHD1" s="1" t="inlineStr">
         <is>
-          <t>what</t>
+          <t>14,421</t>
         </is>
       </c>
       <c r="AHE1" s="1" t="inlineStr">
         <is>
-          <t>your</t>
+          <t>total</t>
         </is>
       </c>
       <c r="AHF1" s="1" t="inlineStr">
         <is>
-          <t>widespread</t>
+          <t>suggested</t>
         </is>
       </c>
       <c r="AHG1" s="1" t="inlineStr">
         <is>
-          <t>value</t>
+          <t>strong</t>
         </is>
       </c>
       <c r="AHH1" s="1" t="inlineStr">
         <is>
-          <t>technology</t>
+          <t>sleep</t>
         </is>
       </c>
       <c r="AHI1" s="1" t="inlineStr">
         <is>
-          <t>practice</t>
+          <t>resource</t>
         </is>
       </c>
       <c r="AHJ1" s="1" t="inlineStr">
         <is>
-          <t>policy</t>
+          <t>predictive</t>
         </is>
       </c>
       <c r="AHK1" s="1" t="inlineStr">
         <is>
-          <t>our</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="AHL1" s="1" t="inlineStr">
         <is>
-          <t>moderation</t>
+          <t>learn</t>
         </is>
       </c>
       <c r="AHM1" s="1" t="inlineStr">
         <is>
-          <t>mathematics</t>
+          <t>local</t>
         </is>
       </c>
       <c r="AHN1" s="1" t="inlineStr">
         <is>
-          <t>many</t>
+          <t>made</t>
         </is>
       </c>
       <c r="AHO1" s="1" t="inlineStr">
         <is>
-          <t>informed</t>
+          <t>relates</t>
         </is>
       </c>
       <c r="AHP1" s="1" t="inlineStr">
         <is>
-          <t>final</t>
+          <t>versus</t>
         </is>
       </c>
       <c r="AHQ1" s="1" t="inlineStr">
         <is>
-          <t>fall</t>
+          <t>versions</t>
         </is>
       </c>
       <c r="AHR1" s="1" t="inlineStr">
         <is>
-          <t>expectancy</t>
+          <t>varied</t>
         </is>
       </c>
       <c r="AHS1" s="1" t="inlineStr">
         <is>
-          <t>exhibited</t>
+          <t>underserved</t>
         </is>
       </c>
       <c r="AHT1" s="1" t="inlineStr">
         <is>
-          <t>examining</t>
+          <t>taken</t>
         </is>
       </c>
       <c r="AHU1" s="1" t="inlineStr">
         <is>
-          <t>examines</t>
+          <t>selected</t>
         </is>
       </c>
       <c r="AHV1" s="1" t="inlineStr">
         <is>
-          <t>engineering</t>
+          <t>school-level</t>
         </is>
       </c>
       <c r="AHW1" s="1" t="inlineStr">
         <is>
-          <t>discrepancy</t>
+          <t>programming</t>
         </is>
       </c>
       <c r="AHX1" s="1" t="inlineStr">
         <is>
-          <t>discrepancies</t>
+          <t>major</t>
         </is>
       </c>
       <c r="AHY1" s="1" t="inlineStr">
         <is>
-          <t>defined</t>
+          <t>plans</t>
         </is>
       </c>
       <c r="AHZ1" s="1" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>plan</t>
         </is>
       </c>
       <c r="AIA1" s="1" t="inlineStr">
         <is>
-          <t>written</t>
+          <t>participation</t>
         </is>
       </c>
       <c r="AIB1" s="1" t="inlineStr">
         <is>
-          <t>undiagnosed</t>
+          <t>overrepresented</t>
         </is>
       </c>
       <c r="AIC1" s="1" t="inlineStr">
         <is>
-          <t>15,733</t>
+          <t>opportunity</t>
         </is>
       </c>
       <c r="AID1" s="1" t="inlineStr">
         <is>
-          <t>group-specific</t>
+          <t>nnat2</t>
         </is>
       </c>
       <c r="AIE1" s="1" t="inlineStr">
         <is>
-          <t>gifted/talented</t>
+          <t>newer</t>
         </is>
       </c>
       <c r="AIF1" s="1" t="inlineStr">
         <is>
-          <t>district</t>
+          <t>participated</t>
         </is>
       </c>
       <c r="AIG1" s="1" t="inlineStr">
         <is>
-          <t>cogat7</t>
+          <t>i.e.</t>
         </is>
       </c>
       <c r="AIH1" s="1" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>substantial</t>
         </is>
       </c>
       <c r="AII1" s="1" t="inlineStr">
         <is>
-          <t>best</t>
+          <t>framework</t>
         </is>
       </c>
       <c r="AIJ1" s="1" t="inlineStr">
         <is>
-          <t>additionally</t>
+          <t>enough</t>
         </is>
       </c>
       <c r="AIK1" s="1" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>examination</t>
         </is>
       </c>
       <c r="AIL1" s="1" t="inlineStr">
         <is>
-          <t>14,421</t>
+          <t>exhibit</t>
         </is>
       </c>
       <c r="AIM1" s="1" t="inlineStr">
         <is>
-          <t>substantial</t>
+          <t>exploring</t>
         </is>
       </c>
       <c r="AIN1" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>home</t>
         </is>
       </c>
       <c r="AIO1" s="1" t="inlineStr">
         <is>
-          <t>suggested</t>
+          <t>inattentive</t>
         </is>
       </c>
       <c r="AIP1" s="1" t="inlineStr">
         <is>
-          <t>strong</t>
+          <t>know</t>
         </is>
       </c>
       <c r="AIQ1" s="1" t="inlineStr">
         <is>
-          <t>sleep</t>
+          <t>manifest</t>
         </is>
       </c>
       <c r="AIR1" s="1" t="inlineStr">
         <is>
-          <t>resource</t>
+          <t>merit</t>
         </is>
       </c>
       <c r="AIS1" s="1" t="inlineStr">
         <is>
-          <t>predictive</t>
+          <t>much</t>
         </is>
       </c>
       <c r="AIT1" s="1" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>negatively</t>
         </is>
       </c>
       <c r="AIU1" s="1" t="inlineStr">
         <is>
-          <t>participated</t>
+          <t>pay</t>
         </is>
       </c>
       <c r="AIV1" s="1" t="inlineStr">
         <is>
-          <t>kindergartners</t>
+          <t>percentage</t>
         </is>
       </c>
       <c r="AIW1" s="1" t="inlineStr">
         <is>
-          <t>learn</t>
+          <t>predicted</t>
         </is>
       </c>
       <c r="AIX1" s="1" t="inlineStr">
         <is>
-          <t>local</t>
+          <t>severe</t>
         </is>
       </c>
       <c r="AIY1" s="1" t="inlineStr">
         <is>
-          <t>made</t>
+          <t>similarly</t>
         </is>
       </c>
       <c r="AIZ1" s="1" t="inlineStr">
         <is>
-          <t>versus</t>
+          <t>strongly</t>
         </is>
       </c>
       <c r="AJA1" s="1" t="inlineStr">
         <is>
-          <t>versions</t>
+          <t>deficit</t>
         </is>
       </c>
       <c r="AJB1" s="1" t="inlineStr">
         <is>
-          <t>varied</t>
+          <t>attention-deficit/hyperactivity</t>
         </is>
       </c>
       <c r="AJC1" s="1" t="inlineStr">
         <is>
-          <t>taken</t>
+          <t>attention-deficient</t>
         </is>
       </c>
       <c r="AJD1" s="1" t="inlineStr">
         <is>
-          <t>selected</t>
+          <t>cognitions</t>
         </is>
       </c>
       <c r="AJE1" s="1" t="inlineStr">
         <is>
-          <t>school-level</t>
+          <t>exploratory</t>
         </is>
       </c>
       <c r="AJF1" s="1" t="inlineStr">
         <is>
-          <t>relates</t>
+          <t>experiencing</t>
         </is>
       </c>
       <c r="AJG1" s="1" t="inlineStr">
         <is>
-          <t>programming</t>
+          <t>deprivation</t>
         </is>
       </c>
       <c r="AJH1" s="1" t="inlineStr">
         <is>
+          <t>daily</t>
+        </is>
+      </c>
+      <c r="AJI1" s="1" t="inlineStr">
+        <is>
+          <t>cultural</t>
+        </is>
+      </c>
+      <c r="AJJ1" s="1" t="inlineStr">
+        <is>
+          <t>correlational</t>
+        </is>
+      </c>
+      <c r="AJK1" s="1" t="inlineStr">
+        <is>
+          <t>contexts</t>
+        </is>
+      </c>
+      <c r="AJL1" s="1" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="AJM1" s="1" t="inlineStr">
+        <is>
+          <t>although</t>
+        </is>
+      </c>
+      <c r="AJN1" s="1" t="inlineStr">
+        <is>
+          <t>appeared</t>
+        </is>
+      </c>
+      <c r="AJO1" s="1" t="inlineStr">
+        <is>
+          <t>alienation</t>
+        </is>
+      </c>
+      <c r="AJP1" s="1" t="inlineStr">
+        <is>
+          <t>alerted</t>
+        </is>
+      </c>
+      <c r="AJQ1" s="1" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="AJR1" s="1" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AJS1" s="1" t="inlineStr">
+        <is>
+          <t>adhd-iv</t>
+        </is>
+      </c>
+      <c r="AJT1" s="1" t="inlineStr">
+        <is>
+          <t>almost</t>
+        </is>
+      </c>
+      <c r="AJU1" s="1" t="inlineStr">
+        <is>
           <t>populations</t>
-        </is>
-      </c>
-      <c r="AJI1" s="1" t="inlineStr">
-        <is>
-          <t>plans</t>
-        </is>
-      </c>
-      <c r="AJJ1" s="1" t="inlineStr">
-        <is>
-          <t>plan</t>
-        </is>
-      </c>
-      <c r="AJK1" s="1" t="inlineStr">
-        <is>
-          <t>participation</t>
-        </is>
-      </c>
-      <c r="AJL1" s="1" t="inlineStr">
-        <is>
-          <t>overrepresented</t>
-        </is>
-      </c>
-      <c r="AJM1" s="1" t="inlineStr">
-        <is>
-          <t>opportunity</t>
-        </is>
-      </c>
-      <c r="AJN1" s="1" t="inlineStr">
-        <is>
-          <t>nnat2</t>
-        </is>
-      </c>
-      <c r="AJO1" s="1" t="inlineStr">
-        <is>
-          <t>newer</t>
-        </is>
-      </c>
-      <c r="AJP1" s="1" t="inlineStr">
-        <is>
-          <t>major</t>
-        </is>
-      </c>
-      <c r="AJQ1" s="1" t="inlineStr">
-        <is>
-          <t>influential</t>
-        </is>
-      </c>
-      <c r="AJR1" s="1" t="inlineStr">
-        <is>
-          <t>i.e.</t>
-        </is>
-      </c>
-      <c r="AJS1" s="1" t="inlineStr">
-        <is>
-          <t>framework</t>
-        </is>
-      </c>
-      <c r="AJT1" s="1" t="inlineStr">
-        <is>
-          <t>deficit</t>
-        </is>
-      </c>
-      <c r="AJU1" s="1" t="inlineStr">
-        <is>
-          <t>examination</t>
-        </is>
-      </c>
-      <c r="AJV1" s="1" t="inlineStr">
-        <is>
-          <t>exhibit</t>
-        </is>
-      </c>
-      <c r="AJW1" s="1" t="inlineStr">
-        <is>
-          <t>exploring</t>
-        </is>
-      </c>
-      <c r="AJX1" s="1" t="inlineStr">
-        <is>
-          <t>home</t>
-        </is>
-      </c>
-      <c r="AJY1" s="1" t="inlineStr">
-        <is>
-          <t>inattentive</t>
-        </is>
-      </c>
-      <c r="AJZ1" s="1" t="inlineStr">
-        <is>
-          <t>know</t>
-        </is>
-      </c>
-      <c r="AKA1" s="1" t="inlineStr">
-        <is>
-          <t>manifest</t>
-        </is>
-      </c>
-      <c r="AKB1" s="1" t="inlineStr">
-        <is>
-          <t>merit</t>
-        </is>
-      </c>
-      <c r="AKC1" s="1" t="inlineStr">
-        <is>
-          <t>much</t>
-        </is>
-      </c>
-      <c r="AKD1" s="1" t="inlineStr">
-        <is>
-          <t>negatively</t>
-        </is>
-      </c>
-      <c r="AKE1" s="1" t="inlineStr">
-        <is>
-          <t>over</t>
-        </is>
-      </c>
-      <c r="AKF1" s="1" t="inlineStr">
-        <is>
-          <t>pay</t>
-        </is>
-      </c>
-      <c r="AKG1" s="1" t="inlineStr">
-        <is>
-          <t>percentage</t>
-        </is>
-      </c>
-      <c r="AKH1" s="1" t="inlineStr">
-        <is>
-          <t>predicted</t>
-        </is>
-      </c>
-      <c r="AKI1" s="1" t="inlineStr">
-        <is>
-          <t>severe</t>
-        </is>
-      </c>
-      <c r="AKJ1" s="1" t="inlineStr">
-        <is>
-          <t>similarly</t>
-        </is>
-      </c>
-      <c r="AKK1" s="1" t="inlineStr">
-        <is>
-          <t>strongly</t>
-        </is>
-      </c>
-      <c r="AKL1" s="1" t="inlineStr">
-        <is>
-          <t>enough</t>
-        </is>
-      </c>
-      <c r="AKM1" s="1" t="inlineStr">
-        <is>
-          <t>386</t>
-        </is>
-      </c>
-      <c r="AKN1" s="1" t="inlineStr">
-        <is>
-          <t>exploratory</t>
-        </is>
-      </c>
-      <c r="AKO1" s="1" t="inlineStr">
-        <is>
-          <t>attention-deficit/hyperactivity</t>
-        </is>
-      </c>
-      <c r="AKP1" s="1" t="inlineStr">
-        <is>
-          <t>experiencing</t>
-        </is>
-      </c>
-      <c r="AKQ1" s="1" t="inlineStr">
-        <is>
-          <t>deprivation</t>
-        </is>
-      </c>
-      <c r="AKR1" s="1" t="inlineStr">
-        <is>
-          <t>daily</t>
-        </is>
-      </c>
-      <c r="AKS1" s="1" t="inlineStr">
-        <is>
-          <t>cultural</t>
-        </is>
-      </c>
-      <c r="AKT1" s="1" t="inlineStr">
-        <is>
-          <t>correlational</t>
-        </is>
-      </c>
-      <c r="AKU1" s="1" t="inlineStr">
-        <is>
-          <t>contexts</t>
-        </is>
-      </c>
-      <c r="AKV1" s="1" t="inlineStr">
-        <is>
-          <t>cognitions</t>
-        </is>
-      </c>
-      <c r="AKW1" s="1" t="inlineStr">
-        <is>
-          <t>china</t>
-        </is>
-      </c>
-      <c r="AKX1" s="1" t="inlineStr">
-        <is>
-          <t>appeared</t>
-        </is>
-      </c>
-      <c r="AKY1" s="1" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="AKZ1" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="ALA1" s="1" t="inlineStr">
-        <is>
-          <t>alienation</t>
-        </is>
-      </c>
-      <c r="ALB1" s="1" t="inlineStr">
-        <is>
-          <t>adhd-iv</t>
-        </is>
-      </c>
-      <c r="ALC1" s="1" t="inlineStr">
-        <is>
-          <t>almost</t>
-        </is>
-      </c>
-      <c r="ALD1" s="1" t="inlineStr">
-        <is>
-          <t>although</t>
-        </is>
-      </c>
-      <c r="ALE1" s="1" t="inlineStr">
-        <is>
-          <t>alerted</t>
-        </is>
-      </c>
-      <c r="ALF1" s="1" t="inlineStr">
-        <is>
-          <t>attention-deficient</t>
-        </is>
-      </c>
-      <c r="ALG1" s="1" t="inlineStr">
-        <is>
-          <t>underserved</t>
         </is>
       </c>
     </row>
@@ -5417,10 +5227,10 @@
         <v>1.04</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9299999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9299999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F2" t="n">
         <v>0.62</v>
@@ -5429,19 +5239,19 @@
         <v>0.61</v>
       </c>
       <c r="H2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="J2" t="n">
         <v>0.55</v>
       </c>
-      <c r="I2" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.54</v>
-      </c>
       <c r="K2" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="L2" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="M2" t="n">
         <v>0.54</v>
@@ -5453,16 +5263,16 @@
         <v>0.53</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="Q2" t="n">
         <v>0.49</v>
       </c>
       <c r="R2" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="S2" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="T2" t="n">
         <v>0.48</v>
@@ -5471,22 +5281,22 @@
         <v>0.48</v>
       </c>
       <c r="V2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="W2" t="n">
         <v>0.47</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.46</v>
       </c>
       <c r="X2" t="n">
         <v>0.46</v>
       </c>
       <c r="Y2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="Z2" t="n">
         <v>0.45</v>
       </c>
-      <c r="Z2" t="n">
-        <v>0.4400000000000001</v>
-      </c>
       <c r="AA2" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="AB2" t="n">
         <v>0.44</v>
@@ -5501,7 +5311,7 @@
         <v>0.43</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="AG2" t="n">
         <v>0.42</v>
@@ -5510,25 +5320,25 @@
         <v>0.42</v>
       </c>
       <c r="AI2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AK2" t="n">
         <v>0.41</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AL2" t="n">
         <v>0.41</v>
       </c>
-      <c r="AK2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.4</v>
-      </c>
       <c r="AM2" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="AN2" t="n">
         <v>0.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.3900000000000001</v>
+        <v>0.39</v>
       </c>
       <c r="AP2" t="n">
         <v>0.39</v>
@@ -5558,10 +5368,10 @@
         <v>0.38</v>
       </c>
       <c r="AY2" t="n">
+        <v>0.3799999999999999</v>
+      </c>
+      <c r="AZ2" t="n">
         <v>0.3700000000000001</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>0.37</v>
       </c>
       <c r="BA2" t="n">
         <v>0.37</v>
@@ -5582,7 +5392,7 @@
         <v>0.36</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="BH2" t="n">
         <v>0.35</v>
@@ -5591,13 +5401,13 @@
         <v>0.35</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="BM2" t="n">
         <v>0.32</v>
@@ -5606,19 +5416,19 @@
         <v>0.32</v>
       </c>
       <c r="BO2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="BP2" t="n">
         <v>0.3100000000000001</v>
       </c>
-      <c r="BP2" t="n">
-        <v>0.31</v>
-      </c>
       <c r="BQ2" t="n">
-        <v>0.31</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="BR2" t="n">
         <v>0.31</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="BT2" t="n">
         <v>0.3</v>
@@ -5633,13 +5443,13 @@
         <v>0.3</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="CA2" t="n">
         <v>0.28</v>
@@ -5648,10 +5458,10 @@
         <v>0.28</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="CE2" t="n">
         <v>0.27</v>
@@ -5675,10 +5485,10 @@
         <v>0.27</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="CN2" t="n">
         <v>0.26</v>
@@ -5708,13 +5518,13 @@
         <v>0.25</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="CZ2" t="n">
         <v>0.24</v>
@@ -5741,19 +5551,19 @@
         <v>0.24</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="DM2" t="n">
         <v>0.23</v>
@@ -5777,7 +5587,7 @@
         <v>0.23</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="DU2" t="n">
         <v>0.22</v>
@@ -5840,22 +5650,22 @@
         <v>0.21</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="EU2" t="n">
         <v>0.2</v>
@@ -5888,16 +5698,16 @@
         <v>0.2</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="FI2" t="n">
         <v>0.19</v>
@@ -5930,16 +5740,16 @@
         <v>0.19</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="FW2" t="n">
         <v>0.18</v>
@@ -6035,13 +5845,13 @@
         <v>0.18</v>
       </c>
       <c r="HB2" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="HC2" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="HD2" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="HE2" t="n">
         <v>0.17</v>
@@ -6098,34 +5908,34 @@
         <v>0.17</v>
       </c>
       <c r="HW2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="HZ2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="IB2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="IF2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="IG2" t="n">
         <v>0.16</v>
@@ -6227,19 +6037,19 @@
         <v>0.16</v>
       </c>
       <c r="JN2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="JO2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="JP2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="JQ2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="JR2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="JS2" t="n">
         <v>0.15</v>
@@ -6323,40 +6133,40 @@
         <v>0.15</v>
       </c>
       <c r="KT2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="KU2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="KV2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="KW2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="KX2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="KY2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="KZ2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LA2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LB2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LC2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LE2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LF2" t="n">
         <v>0.14</v>
@@ -6422,49 +6232,49 @@
         <v>0.14</v>
       </c>
       <c r="MA2" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="MB2" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="MC2" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="MD2" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="ME2" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="MF2" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="MG2" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="MH2" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="MI2" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="MJ2" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="ML2" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="MM2" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="MN2" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="MO2" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="MP2" t="n">
         <v>0.13</v>
@@ -6590,34 +6400,34 @@
         <v>0.13</v>
       </c>
       <c r="OE2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OG2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OH2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OI2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OJ2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OK2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OL2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OM2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ON2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OO2" t="n">
         <v>0.12</v>
@@ -6674,52 +6484,52 @@
         <v>0.12</v>
       </c>
       <c r="PG2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PH2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PI2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PJ2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PK2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PL2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PN2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PO2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PP2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PQ2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PR2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PS2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PT2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PU2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PV2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PW2" t="n">
         <v>0.11</v>
@@ -6791,58 +6601,58 @@
         <v>0.11</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="QU2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="QV2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="QW2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="QX2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="QY2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="QZ2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RA2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RB2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RC2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RH2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RI2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RJ2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RK2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RL2" t="n">
         <v>0.1</v>
@@ -6968,70 +6778,70 @@
         <v>0.1</v>
       </c>
       <c r="TA2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="TB2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="TC2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="TD2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="TE2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="TF2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="TG2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="TH2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="TI2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="TJ2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="TK2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="TL2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="TM2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="TN2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="TO2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="TP2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="TQ2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="TR2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="TS2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="TT2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="TU2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="TV2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="TW2" t="n">
         <v>0.09</v>
@@ -7400,10 +7210,10 @@
         <v>0.09</v>
       </c>
       <c r="YO2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="YP2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="YQ2" t="n">
         <v>0.08</v>
@@ -7871,13 +7681,13 @@
         <v>0.08</v>
       </c>
       <c r="AEP2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AEQ2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AER2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AES2" t="n">
         <v>0.07000000000000001</v>
@@ -8033,109 +7843,109 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AGR2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AGS2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AGT2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AGU2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AGV2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AGW2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AGX2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AGY2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AGZ2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHA2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHB2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHC2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHD2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHE2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHF2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHG2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHH2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHI2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHJ2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHK2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHL2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHM2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHN2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHO2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHP2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHQ2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHR2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHS2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHT2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHU2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHV2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHW2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHX2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHY2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AHZ2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AIA2" t="n">
         <v>0.06</v>
@@ -8276,120 +8086,6 @@
         <v>0.06</v>
       </c>
       <c r="AJU2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AJV2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AJW2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AJX2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AJY2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AJZ2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKA2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKB2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKC2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKD2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKE2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKF2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKG2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKH2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKI2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKJ2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKK2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKL2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKM2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKN2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKO2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKP2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKQ2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKR2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKS2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKT2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKU2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKV2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKW2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKX2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKY2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AKZ2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALA2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALB2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALC2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALD2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALE2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALF2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALG2" t="n">
         <v>0.06</v>
       </c>
     </row>
